--- a/sea_of_clouds_records.xlsx
+++ b/sea_of_clouds_records.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="460" windowWidth="19900" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="10120" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="阿蘇（メインは北側）" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="113">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -502,6 +502,62 @@
     <t>スクリーンショットを取り始めた8/18までは判断基準がぶれている可能性がある。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>雲海は出たが、曇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綺麗な雲海ではない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綺麗な雲海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綺麗な雲海ではない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綺麗な雲海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビミョー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やや薄い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積半分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>極薄い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1946,11 +2002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2030569904"/>
-        <c:axId val="-2011544384"/>
+        <c:axId val="-2079136496"/>
+        <c:axId val="-2071565824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2030569904"/>
+        <c:axId val="-2079136496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,12 +2063,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011544384"/>
+        <c:crossAx val="-2071565824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2011544384"/>
+        <c:axId val="-2071565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,6 +2088,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2068,7 +2125,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030569904"/>
+        <c:crossAx val="-2079136496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3030,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F711"/>
+  <dimension ref="A1:F775"/>
   <sheetViews>
-    <sheetView topLeftCell="A671" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+    <sheetView tabSelected="1" topLeftCell="A740" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="D748" sqref="D748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11157,44 +11214,760 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>41064</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B705">
+        <v>0</v>
+      </c>
+      <c r="C705" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>41065</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B706">
+        <v>0</v>
+      </c>
+      <c r="C706" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>41066</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B707">
+        <v>0</v>
+      </c>
+      <c r="C707" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>41067</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B708">
+        <v>0</v>
+      </c>
+      <c r="C708" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>41068</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B709">
+        <v>0</v>
+      </c>
+      <c r="C709" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A710" s="1">
         <v>41069</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B710">
+        <v>0</v>
+      </c>
+      <c r="C710" t="s">
+        <v>8</v>
+      </c>
+      <c r="D710" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A711" s="1">
         <v>41070</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+      <c r="C711" t="s">
+        <v>8</v>
+      </c>
+      <c r="D711" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A712" s="1">
+        <v>41071</v>
+      </c>
+      <c r="B712">
+        <v>0</v>
+      </c>
+      <c r="C712" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A713" s="1">
+        <v>41072</v>
+      </c>
+      <c r="B713">
+        <v>0</v>
+      </c>
+      <c r="C713" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A714" s="1">
+        <v>41073</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+      <c r="C714" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A715" s="1">
+        <v>41074</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+      <c r="C715" t="s">
+        <v>8</v>
+      </c>
+      <c r="D715" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A716" s="1">
+        <v>41075</v>
+      </c>
+      <c r="B716">
+        <v>0</v>
+      </c>
+      <c r="C716" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A717" s="1">
+        <v>41076</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+      <c r="C717" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A718" s="1">
+        <v>41077</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+      <c r="C718" t="s">
+        <v>8</v>
+      </c>
+      <c r="D718" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A719" s="1">
+        <v>41078</v>
+      </c>
+      <c r="B719">
+        <v>0</v>
+      </c>
+      <c r="C719" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A720" s="1">
+        <v>41079</v>
+      </c>
+      <c r="B720">
+        <v>0</v>
+      </c>
+      <c r="C720" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A721" s="1">
+        <v>41080</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+      <c r="C721" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A722" s="1">
+        <v>41081</v>
+      </c>
+      <c r="B722">
+        <v>0</v>
+      </c>
+      <c r="C722" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A723" s="1">
+        <v>41082</v>
+      </c>
+      <c r="B723">
+        <v>0</v>
+      </c>
+      <c r="C723" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A724" s="1">
+        <v>41083</v>
+      </c>
+      <c r="B724">
+        <v>0</v>
+      </c>
+      <c r="C724" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A725" s="1">
+        <v>41084</v>
+      </c>
+      <c r="B725">
+        <v>0</v>
+      </c>
+      <c r="C725" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A726" s="1">
+        <v>41085</v>
+      </c>
+      <c r="B726">
+        <v>0</v>
+      </c>
+      <c r="C726" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A727" s="1">
+        <v>41086</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+      <c r="C727" t="s">
+        <v>8</v>
+      </c>
+      <c r="D727" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A728" s="1">
+        <v>41087</v>
+      </c>
+      <c r="B728">
+        <v>0</v>
+      </c>
+      <c r="C728" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A729" s="1">
+        <v>41088</v>
+      </c>
+      <c r="B729">
+        <v>0</v>
+      </c>
+      <c r="C729" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A730" s="1">
+        <v>41089</v>
+      </c>
+      <c r="B730">
+        <v>0</v>
+      </c>
+      <c r="C730" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A731" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+      <c r="C731" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A732" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B732">
+        <v>0</v>
+      </c>
+      <c r="C732" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A733" s="1">
+        <v>41092</v>
+      </c>
+      <c r="B733">
+        <v>0</v>
+      </c>
+      <c r="C733" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A734" s="1">
+        <v>41093</v>
+      </c>
+      <c r="B734">
+        <v>0</v>
+      </c>
+      <c r="C734" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A735" s="1">
+        <v>41094</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+      <c r="C735" t="s">
+        <v>8</v>
+      </c>
+      <c r="D735" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A736" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B736">
+        <v>0</v>
+      </c>
+      <c r="C736" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A737" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B737">
+        <v>0</v>
+      </c>
+      <c r="C737" t="s">
+        <v>8</v>
+      </c>
+      <c r="D737" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A738" s="1">
+        <v>41097</v>
+      </c>
+      <c r="B738">
+        <v>0</v>
+      </c>
+      <c r="C738" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A739" s="1">
+        <v>41098</v>
+      </c>
+      <c r="B739">
+        <v>0</v>
+      </c>
+      <c r="C739" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A740" s="1">
+        <v>41099</v>
+      </c>
+      <c r="B740">
+        <v>0</v>
+      </c>
+      <c r="C740" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A741" s="1">
+        <v>41100</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+      <c r="C741" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A742" s="1">
+        <v>41101</v>
+      </c>
+      <c r="B742">
+        <v>0</v>
+      </c>
+      <c r="C742" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A743" s="1">
+        <v>41102</v>
+      </c>
+      <c r="B743" t="s">
+        <v>105</v>
+      </c>
+      <c r="C743" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A744" s="1">
+        <v>41103</v>
+      </c>
+      <c r="B744" t="s">
+        <v>106</v>
+      </c>
+      <c r="C744" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A745" s="1">
+        <v>41104</v>
+      </c>
+      <c r="B745" t="s">
+        <v>0</v>
+      </c>
+      <c r="C745" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A746" s="1">
+        <v>41105</v>
+      </c>
+      <c r="B746" t="s">
+        <v>0</v>
+      </c>
+      <c r="C746" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A747" s="1">
+        <v>41106</v>
+      </c>
+      <c r="B747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C747" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A748" s="1">
+        <v>41107</v>
+      </c>
+      <c r="B748">
+        <v>1</v>
+      </c>
+      <c r="C748" t="s">
+        <v>112</v>
+      </c>
+      <c r="D748" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A749" s="1">
+        <v>41108</v>
+      </c>
+      <c r="B749" t="s">
+        <v>0</v>
+      </c>
+      <c r="C749" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A750" s="1">
+        <v>41109</v>
+      </c>
+      <c r="B750">
+        <v>0</v>
+      </c>
+      <c r="C750" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A751" s="1">
+        <v>41110</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
+      </c>
+      <c r="C751" t="s">
+        <v>8</v>
+      </c>
+      <c r="D751" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A752" s="1">
+        <v>41111</v>
+      </c>
+      <c r="B752">
+        <v>0</v>
+      </c>
+      <c r="C752" t="s">
+        <v>8</v>
+      </c>
+      <c r="D752" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A753" s="1">
+        <v>41112</v>
+      </c>
+      <c r="B753">
+        <v>0</v>
+      </c>
+      <c r="C753" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A754" s="1">
+        <v>41113</v>
+      </c>
+      <c r="B754">
+        <v>1</v>
+      </c>
+      <c r="C754" t="s">
+        <v>8</v>
+      </c>
+      <c r="D754" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A755" s="1">
+        <v>41114</v>
+      </c>
+      <c r="B755">
+        <v>0</v>
+      </c>
+      <c r="C755" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A756" s="1">
+        <v>41115</v>
+      </c>
+      <c r="B756">
+        <v>0</v>
+      </c>
+      <c r="C756" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A757" s="1">
+        <v>41116</v>
+      </c>
+      <c r="B757">
+        <v>1</v>
+      </c>
+      <c r="C757" t="s">
+        <v>8</v>
+      </c>
+      <c r="D757" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A758" s="1">
+        <v>41117</v>
+      </c>
+      <c r="B758">
+        <v>0</v>
+      </c>
+      <c r="C758" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A759" s="1">
+        <v>41118</v>
+      </c>
+      <c r="B759">
+        <v>0</v>
+      </c>
+      <c r="C759" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A760" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B760">
+        <v>0</v>
+      </c>
+      <c r="C760" t="s">
+        <v>8</v>
+      </c>
+      <c r="D760" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A761" s="1">
+        <v>41120</v>
+      </c>
+      <c r="B761">
+        <v>0</v>
+      </c>
+      <c r="C761" t="s">
+        <v>8</v>
+      </c>
+      <c r="D761" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A762" s="1">
+        <v>41121</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A763" s="1">
+        <v>41122</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A764" s="1">
+        <v>41123</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A765" s="1">
+        <v>41124</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A766" s="1">
+        <v>41125</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A767" s="1">
+        <v>41126</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A768" s="1">
+        <v>41127</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A769" s="1">
+        <v>41128</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A770" s="1">
+        <v>41129</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A771" s="1">
+        <v>41130</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A772" s="1">
+        <v>41131</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A773" s="1">
+        <v>41132</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A774" s="1">
+        <v>41133</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A775" s="1">
+        <v>41134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B357:B550 B552:B654">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B655:B660">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -11206,7 +11979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B655:B660">
+  <conditionalFormatting sqref="D663:D670">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -11218,20 +11991,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D663:D670">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B673:B679">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11243,7 +12004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B681:B684">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11255,7 +12016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D687">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11266,7 +12027,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B685:B686 B680 B671:B672 B661:B662 B646:B654 B641 B357:B550 B552:B637 B688:B691 B693:B704">
+  <conditionalFormatting sqref="B685:B686 B680 B671:B672 B661:B662 B646:B654 B641 B357:B550 B552:B637 B688:B691 B693:B742">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B687">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -11278,7 +12051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B687">
+  <conditionalFormatting sqref="B663:B670">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11290,7 +12063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B663:B670">
+  <conditionalFormatting sqref="B551">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11314,7 +12087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B551">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11335,7 +12108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/sea_of_clouds_records.xlsx
+++ b/sea_of_clouds_records.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="10120" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="14820" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="阿蘇（メインは北側）" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="119">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -558,12 +558,36 @@
     <t>v</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>見事な雲海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やや見事な雲海</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雲が多くて、写真には向かないと判断。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一瞬雲海が出たが、条件は良くない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大気の透明度が低い</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,6 +598,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -603,8 +645,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -614,8 +658,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -645,7 +691,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2002,11 +2047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079136496"/>
-        <c:axId val="-2071565824"/>
+        <c:axId val="-2143180256"/>
+        <c:axId val="-2123319536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079136496"/>
+        <c:axId val="-2143180256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,12 +2108,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071565824"/>
+        <c:crossAx val="-2123319536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071565824"/>
+        <c:axId val="-2123319536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2170,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079136496"/>
+        <c:crossAx val="-2143180256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3087,10 +3132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F775"/>
+  <dimension ref="A1:F804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D748" sqref="D748"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="C800" sqref="A1:C800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11788,7 +11833,7 @@
         <v>41113</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C754" t="s">
         <v>8</v>
@@ -11887,70 +11932,485 @@
       <c r="A762" s="1">
         <v>41121</v>
       </c>
+      <c r="B762">
+        <v>0</v>
+      </c>
+      <c r="C762" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A763" s="1">
         <v>41122</v>
       </c>
+      <c r="B763">
+        <v>0</v>
+      </c>
+      <c r="C763" t="s">
+        <v>8</v>
+      </c>
+      <c r="D763" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
         <v>41123</v>
       </c>
+      <c r="B764">
+        <v>0</v>
+      </c>
+      <c r="C764" t="s">
+        <v>8</v>
+      </c>
+      <c r="D764" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A765" s="1">
         <v>41124</v>
       </c>
+      <c r="B765">
+        <v>0</v>
+      </c>
+      <c r="C765" t="s">
+        <v>8</v>
+      </c>
+      <c r="D765" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A766" s="1">
         <v>41125</v>
       </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+      <c r="C766" t="s">
+        <v>8</v>
+      </c>
+      <c r="D766" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A767" s="1">
         <v>41126</v>
       </c>
+      <c r="B767">
+        <v>0</v>
+      </c>
+      <c r="C767" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A768" s="1">
         <v>41127</v>
       </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B768">
+        <v>0</v>
+      </c>
+      <c r="C768" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A769" s="1">
         <v>41128</v>
       </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B769">
+        <v>1</v>
+      </c>
+      <c r="C769" t="s">
+        <v>8</v>
+      </c>
+      <c r="D769" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A770" s="1">
         <v>41129</v>
       </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B770">
+        <v>0</v>
+      </c>
+      <c r="C770" t="s">
+        <v>8</v>
+      </c>
+      <c r="D770" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A771" s="1">
         <v>41130</v>
       </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B771">
+        <v>0</v>
+      </c>
+      <c r="C771" t="s">
+        <v>8</v>
+      </c>
+      <c r="D771" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A772" s="1">
         <v>41131</v>
       </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B772">
+        <v>0</v>
+      </c>
+      <c r="C772" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A773" s="1">
         <v>41132</v>
       </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B773">
+        <v>0</v>
+      </c>
+      <c r="C773" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A774" s="1">
         <v>41133</v>
       </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B774">
+        <v>0</v>
+      </c>
+      <c r="C774" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A775" s="1">
         <v>41134</v>
+      </c>
+      <c r="B775">
+        <v>0</v>
+      </c>
+      <c r="C775" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A776" s="1">
+        <v>41135</v>
+      </c>
+      <c r="B776">
+        <v>0</v>
+      </c>
+      <c r="C776" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A777" s="1">
+        <v>41136</v>
+      </c>
+      <c r="B777">
+        <v>0</v>
+      </c>
+      <c r="C777" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A778" s="1">
+        <v>41137</v>
+      </c>
+      <c r="B778">
+        <v>0</v>
+      </c>
+      <c r="C778" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A779" s="1">
+        <v>41138</v>
+      </c>
+      <c r="B779">
+        <v>0</v>
+      </c>
+      <c r="C779" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A780" s="1">
+        <v>41139</v>
+      </c>
+      <c r="B780">
+        <v>0</v>
+      </c>
+      <c r="C780" t="s">
+        <v>8</v>
+      </c>
+      <c r="D780" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A781" s="1">
+        <v>41140</v>
+      </c>
+      <c r="B781">
+        <v>1</v>
+      </c>
+      <c r="C781" t="s">
+        <v>8</v>
+      </c>
+      <c r="D781" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A782" s="1">
+        <v>41141</v>
+      </c>
+      <c r="B782">
+        <v>0</v>
+      </c>
+      <c r="C782" t="s">
+        <v>8</v>
+      </c>
+      <c r="D782" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A783" s="1">
+        <v>41142</v>
+      </c>
+      <c r="B783">
+        <v>0</v>
+      </c>
+      <c r="C783" t="s">
+        <v>8</v>
+      </c>
+      <c r="D783" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A784" s="1">
+        <v>41143</v>
+      </c>
+      <c r="B784">
+        <v>0</v>
+      </c>
+      <c r="C784" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A785" s="1">
+        <v>41144</v>
+      </c>
+      <c r="B785">
+        <v>0</v>
+      </c>
+      <c r="C785" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A786" s="1">
+        <v>41145</v>
+      </c>
+      <c r="B786">
+        <v>0</v>
+      </c>
+      <c r="C786" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A787" s="1">
+        <v>41146</v>
+      </c>
+      <c r="B787">
+        <v>0</v>
+      </c>
+      <c r="C787" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A788" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B788">
+        <v>0</v>
+      </c>
+      <c r="C788" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A789" s="1">
+        <v>41148</v>
+      </c>
+      <c r="B789">
+        <v>0</v>
+      </c>
+      <c r="C789" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A790" s="1">
+        <v>41149</v>
+      </c>
+      <c r="B790">
+        <v>0</v>
+      </c>
+      <c r="C790" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A791" s="1">
+        <v>41150</v>
+      </c>
+      <c r="B791">
+        <v>0</v>
+      </c>
+      <c r="C791" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A792" s="1">
+        <v>41151</v>
+      </c>
+      <c r="B792">
+        <v>0</v>
+      </c>
+      <c r="C792" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A793" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B793">
+        <v>0</v>
+      </c>
+      <c r="C793" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A794" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B794">
+        <v>0</v>
+      </c>
+      <c r="C794" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A795" s="1">
+        <v>41154</v>
+      </c>
+      <c r="B795">
+        <v>0</v>
+      </c>
+      <c r="C795" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A796" s="1">
+        <v>41155</v>
+      </c>
+      <c r="B796">
+        <v>0</v>
+      </c>
+      <c r="C796" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A797" s="1">
+        <v>41156</v>
+      </c>
+      <c r="B797">
+        <v>0</v>
+      </c>
+      <c r="C797" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A798" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B798">
+        <v>0</v>
+      </c>
+      <c r="C798" t="s">
+        <v>8</v>
+      </c>
+      <c r="D798" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A799" s="1">
+        <v>41158</v>
+      </c>
+      <c r="B799">
+        <v>0</v>
+      </c>
+      <c r="C799" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A800" s="1">
+        <v>41159</v>
+      </c>
+      <c r="B800">
+        <v>0</v>
+      </c>
+      <c r="C800" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A801" s="1">
+        <v>41160</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A802" s="1">
+        <v>41161</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A803" s="1">
+        <v>41162</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A804" s="1">
+        <v>41163</v>
       </c>
     </row>
   </sheetData>

--- a/sea_of_clouds_records.xlsx
+++ b/sea_of_clouds_records.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="14820" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10540" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="阿蘇（メインは北側）" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="129">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -582,6 +582,88 @@
     <t>大気の透明度が低い</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>雲が少し多い</t>
+    <rPh sb="0" eb="1">
+      <t>クモガスコシオオイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見事な雲海</t>
+    <rPh sb="0" eb="2">
+      <t>ミゴトナウンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微妙。薄い。</t>
+    <rPh sb="0" eb="2">
+      <t>ビミョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雲さえなければよかったのだが。曇り。</t>
+    <rPh sb="0" eb="1">
+      <t>クモサエナケレバ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し薄かったようだが、濃ゆい</t>
+    <rPh sb="0" eb="1">
+      <t>スコシウスカッタヨウダガ、</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コユイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大気の透明度が低い・・・</t>
+    <rPh sb="0" eb="2">
+      <t>タイキノトウメイドガヒクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぐに薄くなった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積が足りない</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキガタリナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積が足りず、曇</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキガタリズ、</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄く出たようだが、、、地上にしもが降りているようにも見える。</t>
+    <rPh sb="0" eb="1">
+      <t>ウスクデタヨウダガ、</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チジョウニシモガオリテイルヨウニモミエル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2047,11 +2129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143180256"/>
-        <c:axId val="-2123319536"/>
+        <c:axId val="-320190816"/>
+        <c:axId val="-320189024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143180256"/>
+        <c:axId val="-320190816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,12 +2190,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123319536"/>
+        <c:crossAx val="-320189024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123319536"/>
+        <c:axId val="-320189024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2252,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143180256"/>
+        <c:crossAx val="-320190816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3132,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F804"/>
+  <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C800" sqref="A1:C800"/>
+    <sheetView tabSelected="1" topLeftCell="A892" zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E915" sqref="E915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12393,24 +12475,1360 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A801" s="1">
         <v>41160</v>
       </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B801">
+        <v>0</v>
+      </c>
+      <c r="C801" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A802" s="1">
         <v>41161</v>
       </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B802">
+        <v>0</v>
+      </c>
+      <c r="C802" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A803" s="1">
         <v>41162</v>
       </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B803">
+        <v>0</v>
+      </c>
+      <c r="C803" t="s">
+        <v>8</v>
+      </c>
+      <c r="D803" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A804" s="1">
         <v>41163</v>
+      </c>
+      <c r="B804">
+        <v>0</v>
+      </c>
+      <c r="C804" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A805" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B805">
+        <v>0</v>
+      </c>
+      <c r="C805" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A806" s="1">
+        <v>41165</v>
+      </c>
+      <c r="B806">
+        <v>0</v>
+      </c>
+      <c r="C806" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A807" s="1">
+        <v>41166</v>
+      </c>
+      <c r="B807">
+        <v>0</v>
+      </c>
+      <c r="C807" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A808" s="1">
+        <v>41167</v>
+      </c>
+      <c r="B808">
+        <v>1</v>
+      </c>
+      <c r="C808" t="s">
+        <v>8</v>
+      </c>
+      <c r="D808" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A809" s="1">
+        <v>41168</v>
+      </c>
+      <c r="B809">
+        <v>1</v>
+      </c>
+      <c r="C809" t="s">
+        <v>8</v>
+      </c>
+      <c r="D809" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A810" s="1">
+        <v>41169</v>
+      </c>
+      <c r="B810">
+        <v>0</v>
+      </c>
+      <c r="C810" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A811" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B811">
+        <v>0</v>
+      </c>
+      <c r="C811" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A812" s="1">
+        <v>41171</v>
+      </c>
+      <c r="B812">
+        <v>0</v>
+      </c>
+      <c r="C812" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A813" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B813">
+        <v>0</v>
+      </c>
+      <c r="C813" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A814" s="1">
+        <v>41173</v>
+      </c>
+      <c r="B814">
+        <v>0</v>
+      </c>
+      <c r="C814" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A815" s="1">
+        <v>41174</v>
+      </c>
+      <c r="B815">
+        <v>0</v>
+      </c>
+      <c r="C815" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A816" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B816">
+        <v>0</v>
+      </c>
+      <c r="C816" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A817" s="1">
+        <v>41176</v>
+      </c>
+      <c r="B817">
+        <v>0</v>
+      </c>
+      <c r="C817" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A818" s="1">
+        <v>41177</v>
+      </c>
+      <c r="B818">
+        <v>0</v>
+      </c>
+      <c r="C818" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A819" s="1">
+        <v>41178</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+      <c r="C819" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A820" s="1">
+        <v>41179</v>
+      </c>
+      <c r="B820">
+        <v>0</v>
+      </c>
+      <c r="C820" t="s">
+        <v>8</v>
+      </c>
+      <c r="D820" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A821" s="1">
+        <v>41180</v>
+      </c>
+      <c r="B821">
+        <v>0</v>
+      </c>
+      <c r="C821" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A822" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B822">
+        <v>0</v>
+      </c>
+      <c r="C822" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A823" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B823">
+        <v>0</v>
+      </c>
+      <c r="C823" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A824" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B824">
+        <v>1</v>
+      </c>
+      <c r="C824" t="s">
+        <v>8</v>
+      </c>
+      <c r="D824" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A825" s="1">
+        <v>41184</v>
+      </c>
+      <c r="B825">
+        <v>0</v>
+      </c>
+      <c r="C825" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A826" s="1">
+        <v>41185</v>
+      </c>
+      <c r="B826">
+        <v>0</v>
+      </c>
+      <c r="C826" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A827" s="1">
+        <v>41186</v>
+      </c>
+      <c r="B827">
+        <v>0</v>
+      </c>
+      <c r="C827" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A828" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B828">
+        <v>0</v>
+      </c>
+      <c r="C828" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A829" s="1">
+        <v>41188</v>
+      </c>
+      <c r="B829">
+        <v>0</v>
+      </c>
+      <c r="C829" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A830" s="1">
+        <v>41189</v>
+      </c>
+      <c r="B830">
+        <v>0</v>
+      </c>
+      <c r="C830" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A831" s="1">
+        <v>41190</v>
+      </c>
+      <c r="B831">
+        <v>0</v>
+      </c>
+      <c r="C831" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A832" s="1">
+        <v>41191</v>
+      </c>
+      <c r="B832">
+        <v>0</v>
+      </c>
+      <c r="C832" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A833" s="1">
+        <v>41192</v>
+      </c>
+      <c r="B833">
+        <v>0</v>
+      </c>
+      <c r="C833" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A834" s="1">
+        <v>41193</v>
+      </c>
+      <c r="B834">
+        <v>0</v>
+      </c>
+      <c r="C834" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A835" s="1">
+        <v>41194</v>
+      </c>
+      <c r="B835">
+        <v>0</v>
+      </c>
+      <c r="C835" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A836" s="1">
+        <v>41195</v>
+      </c>
+      <c r="B836">
+        <v>0</v>
+      </c>
+      <c r="C836" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A837" s="1">
+        <v>41196</v>
+      </c>
+      <c r="B837">
+        <v>0</v>
+      </c>
+      <c r="C837" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A838" s="1">
+        <v>41197</v>
+      </c>
+      <c r="B838">
+        <v>0</v>
+      </c>
+      <c r="C838" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A839" s="1">
+        <v>41198</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+      <c r="C839" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A840" s="1">
+        <v>41199</v>
+      </c>
+      <c r="B840">
+        <v>0</v>
+      </c>
+      <c r="C840" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A841" s="1">
+        <v>41200</v>
+      </c>
+      <c r="B841">
+        <v>0</v>
+      </c>
+      <c r="C841" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A842" s="1">
+        <v>41201</v>
+      </c>
+      <c r="B842">
+        <v>0</v>
+      </c>
+      <c r="C842" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A843" s="1">
+        <v>41202</v>
+      </c>
+      <c r="B843">
+        <v>0</v>
+      </c>
+      <c r="C843" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A844" s="1">
+        <v>41203</v>
+      </c>
+      <c r="B844">
+        <v>0</v>
+      </c>
+      <c r="C844" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A845" s="1">
+        <v>41204</v>
+      </c>
+      <c r="B845">
+        <v>0</v>
+      </c>
+      <c r="C845" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A846" s="1">
+        <v>41205</v>
+      </c>
+      <c r="B846">
+        <v>0</v>
+      </c>
+      <c r="C846" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A847" s="1">
+        <v>41206</v>
+      </c>
+      <c r="B847">
+        <v>0</v>
+      </c>
+      <c r="C847" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A848" s="1">
+        <v>41207</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+      <c r="C848" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A849" s="1">
+        <v>41208</v>
+      </c>
+      <c r="B849">
+        <v>0</v>
+      </c>
+      <c r="C849" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A850" s="1">
+        <v>41209</v>
+      </c>
+      <c r="B850">
+        <v>0</v>
+      </c>
+      <c r="C850" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A851" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+      <c r="C851" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A852" s="1">
+        <v>41211</v>
+      </c>
+      <c r="B852">
+        <v>0</v>
+      </c>
+      <c r="C852" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A853" s="1">
+        <v>41212</v>
+      </c>
+      <c r="B853">
+        <v>0</v>
+      </c>
+      <c r="C853" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A854" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+      <c r="C854" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A855" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+      <c r="C855" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A856" s="1">
+        <v>41215</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+      <c r="C856" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A857" s="1">
+        <v>41216</v>
+      </c>
+      <c r="B857">
+        <v>1</v>
+      </c>
+      <c r="C857" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A858" s="1">
+        <v>41217</v>
+      </c>
+      <c r="B858">
+        <v>0</v>
+      </c>
+      <c r="C858" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A859" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+      <c r="C859" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A860" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B860">
+        <v>0</v>
+      </c>
+      <c r="C860" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A861" s="1">
+        <v>41220</v>
+      </c>
+      <c r="B861">
+        <v>0</v>
+      </c>
+      <c r="C861" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A862" s="1">
+        <v>41221</v>
+      </c>
+      <c r="B862">
+        <v>0</v>
+      </c>
+      <c r="C862" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A863" s="1">
+        <v>41222</v>
+      </c>
+      <c r="B863">
+        <v>0</v>
+      </c>
+      <c r="C863" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A864" s="1">
+        <v>41223</v>
+      </c>
+      <c r="B864">
+        <v>0</v>
+      </c>
+      <c r="C864" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A865" s="1">
+        <v>41224</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+      <c r="C865" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A866" s="1">
+        <v>41225</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+      <c r="C866" t="s">
+        <v>8</v>
+      </c>
+      <c r="D866" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A867" s="1">
+        <v>41226</v>
+      </c>
+      <c r="B867">
+        <v>0</v>
+      </c>
+      <c r="C867" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A868" s="1">
+        <v>41227</v>
+      </c>
+      <c r="B868">
+        <v>0</v>
+      </c>
+      <c r="C868" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A869" s="1">
+        <v>41228</v>
+      </c>
+      <c r="B869">
+        <v>0</v>
+      </c>
+      <c r="C869" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A870" s="1">
+        <v>41229</v>
+      </c>
+      <c r="B870">
+        <v>0</v>
+      </c>
+      <c r="C870" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A871" s="1">
+        <v>41230</v>
+      </c>
+      <c r="B871">
+        <v>0</v>
+      </c>
+      <c r="C871" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A872" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B872">
+        <v>0</v>
+      </c>
+      <c r="C872" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A873" s="1">
+        <v>41232</v>
+      </c>
+      <c r="B873">
+        <v>0</v>
+      </c>
+      <c r="C873" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A874" s="1">
+        <v>41233</v>
+      </c>
+      <c r="B874">
+        <v>0</v>
+      </c>
+      <c r="C874" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A875" s="1">
+        <v>41234</v>
+      </c>
+      <c r="B875">
+        <v>0</v>
+      </c>
+      <c r="C875" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A876" s="1">
+        <v>41235</v>
+      </c>
+      <c r="B876">
+        <v>0</v>
+      </c>
+      <c r="C876" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A877" s="1">
+        <v>41236</v>
+      </c>
+      <c r="B877">
+        <v>0</v>
+      </c>
+      <c r="C877" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A878" s="1">
+        <v>41237</v>
+      </c>
+      <c r="B878">
+        <v>0</v>
+      </c>
+      <c r="C878" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A879" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B879">
+        <v>0</v>
+      </c>
+      <c r="C879" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A880" s="1">
+        <v>41239</v>
+      </c>
+      <c r="B880">
+        <v>0</v>
+      </c>
+      <c r="C880" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A881" s="1">
+        <v>41240</v>
+      </c>
+      <c r="B881">
+        <v>0</v>
+      </c>
+      <c r="C881" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A882" s="1">
+        <v>41241</v>
+      </c>
+      <c r="B882">
+        <v>1</v>
+      </c>
+      <c r="C882" t="s">
+        <v>8</v>
+      </c>
+      <c r="D882" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A883" s="1">
+        <v>41242</v>
+      </c>
+      <c r="B883">
+        <v>0</v>
+      </c>
+      <c r="C883" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A884" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B884">
+        <v>0</v>
+      </c>
+      <c r="C884" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A885" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B885">
+        <v>0</v>
+      </c>
+      <c r="C885" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A886" s="1">
+        <v>41245</v>
+      </c>
+      <c r="B886">
+        <v>1</v>
+      </c>
+      <c r="C886" t="s">
+        <v>8</v>
+      </c>
+      <c r="D886" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A887" s="1">
+        <v>41246</v>
+      </c>
+      <c r="B887">
+        <v>0</v>
+      </c>
+      <c r="C887" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A888" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B888">
+        <v>0</v>
+      </c>
+      <c r="C888" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A889" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B889">
+        <v>0</v>
+      </c>
+      <c r="C889" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A890" s="1">
+        <v>41249</v>
+      </c>
+      <c r="B890">
+        <v>1</v>
+      </c>
+      <c r="C890" t="s">
+        <v>8</v>
+      </c>
+      <c r="D890" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A891" s="1">
+        <v>41250</v>
+      </c>
+      <c r="B891">
+        <v>0</v>
+      </c>
+      <c r="C891" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A892" s="1">
+        <v>41251</v>
+      </c>
+      <c r="B892">
+        <v>0</v>
+      </c>
+      <c r="C892" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A893" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B893">
+        <v>0</v>
+      </c>
+      <c r="C893" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A894" s="1">
+        <v>41253</v>
+      </c>
+      <c r="B894">
+        <v>0</v>
+      </c>
+      <c r="C894" t="s">
+        <v>8</v>
+      </c>
+      <c r="D894" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A895" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B895">
+        <v>0</v>
+      </c>
+      <c r="C895" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A896" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B896">
+        <v>0</v>
+      </c>
+      <c r="C896" t="s">
+        <v>8</v>
+      </c>
+      <c r="D896" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A897" s="1">
+        <v>41256</v>
+      </c>
+      <c r="B897">
+        <v>0</v>
+      </c>
+      <c r="C897" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A898" s="1">
+        <v>41257</v>
+      </c>
+      <c r="B898">
+        <v>0</v>
+      </c>
+      <c r="C898" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A899" s="1">
+        <v>41258</v>
+      </c>
+      <c r="B899">
+        <v>0</v>
+      </c>
+      <c r="C899" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A900" s="1">
+        <v>41259</v>
+      </c>
+      <c r="B900">
+        <v>0</v>
+      </c>
+      <c r="C900" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A901" s="1">
+        <v>41260</v>
+      </c>
+      <c r="B901" t="s">
+        <v>0</v>
+      </c>
+      <c r="C901" t="s">
+        <v>13</v>
+      </c>
+      <c r="D901" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A902" s="1">
+        <v>41261</v>
+      </c>
+      <c r="B902" t="s">
+        <v>0</v>
+      </c>
+      <c r="C902" t="s">
+        <v>13</v>
+      </c>
+      <c r="D902" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A903" s="1">
+        <v>41262</v>
+      </c>
+      <c r="B903" t="s">
+        <v>0</v>
+      </c>
+      <c r="C903" t="s">
+        <v>13</v>
+      </c>
+      <c r="D903" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A904" s="1">
+        <v>41263</v>
+      </c>
+      <c r="B904" t="s">
+        <v>0</v>
+      </c>
+      <c r="C904" t="s">
+        <v>13</v>
+      </c>
+      <c r="D904" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A905" s="1">
+        <v>41264</v>
+      </c>
+      <c r="B905" t="s">
+        <v>0</v>
+      </c>
+      <c r="C905" t="s">
+        <v>13</v>
+      </c>
+      <c r="D905" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A906" s="1">
+        <v>41265</v>
+      </c>
+      <c r="B906" t="s">
+        <v>0</v>
+      </c>
+      <c r="C906" t="s">
+        <v>13</v>
+      </c>
+      <c r="D906" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A907" s="1">
+        <v>41266</v>
+      </c>
+      <c r="B907" t="s">
+        <v>0</v>
+      </c>
+      <c r="C907" t="s">
+        <v>13</v>
+      </c>
+      <c r="D907" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A908" s="1">
+        <v>41267</v>
+      </c>
+      <c r="B908" t="s">
+        <v>0</v>
+      </c>
+      <c r="C908" t="s">
+        <v>13</v>
+      </c>
+      <c r="D908" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A909" s="1">
+        <v>41268</v>
+      </c>
+      <c r="B909" t="s">
+        <v>0</v>
+      </c>
+      <c r="C909" t="s">
+        <v>13</v>
+      </c>
+      <c r="D909" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A910" s="1">
+        <v>41269</v>
+      </c>
+      <c r="B910" t="s">
+        <v>0</v>
+      </c>
+      <c r="C910" t="s">
+        <v>13</v>
+      </c>
+      <c r="D910" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A911" s="1">
+        <v>41270</v>
+      </c>
+      <c r="B911" t="s">
+        <v>0</v>
+      </c>
+      <c r="C911" t="s">
+        <v>13</v>
+      </c>
+      <c r="D911" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A912" s="1">
+        <v>41271</v>
+      </c>
+      <c r="B912" t="s">
+        <v>0</v>
+      </c>
+      <c r="C912" t="s">
+        <v>13</v>
+      </c>
+      <c r="D912" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A913" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B913" t="s">
+        <v>0</v>
+      </c>
+      <c r="C913" t="s">
+        <v>13</v>
+      </c>
+      <c r="D913" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A914" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B914" t="s">
+        <v>0</v>
+      </c>
+      <c r="C914" t="s">
+        <v>13</v>
+      </c>
+      <c r="D914" t="s">
+        <v>38</v>
+      </c>
+      <c r="E914" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A915" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B915" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A916" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B916" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A917" s="1">
+        <v>41276</v>
+      </c>
+      <c r="B917" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sea_of_clouds_records.xlsx
+++ b/sea_of_clouds_records.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/Dropbox/study_share/cloud_Aso/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\study_share\cloud_Aso\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10540" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="阿蘇（メインは北側）" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="175">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -617,24 +617,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>少し薄かったようだが、濃ゆい</t>
-    <rPh sb="0" eb="1">
-      <t>スコシウスカッタヨウダガ、</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コユイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大気の透明度が低い・・・</t>
     <rPh sb="0" eb="2">
       <t>タイキノトウメイドガヒクイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すぐに薄くなった</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -655,12 +641,516 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>薄く出たようだが、、、地上にしもが降りているようにも見える。</t>
+    <t>すぐに厚みがなくなった</t>
+    <rPh sb="3" eb="4">
+      <t>アツミガナクナッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し厚みが足りないが、濃ゆい</t>
     <rPh sb="0" eb="1">
-      <t>ウスクデタヨウダガ、</t>
+      <t>スコシウスカッタヨウダガ、</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツミガタリナイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コユイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若干出たようだが、、、地上にしもが降りているようにも見える。</t>
+    <rPh sb="0" eb="2">
+      <t>ジャッカン</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>チジョウニシモガオリテイルヨウニモミエル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い。面積足りない</t>
+    <rPh sb="0" eb="1">
+      <t>ウスイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>メンセキタリナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い</t>
+    <rPh sb="0" eb="1">
+      <t>ウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積がかなり足りない。まだら状。</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキガタリナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タリナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚みはないが濃ゆいものが出た。面積は足りない。ソースはtwitter</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート多数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラは明後日方向を向きっぱなしだ・・・</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマカメラハ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>アサッテホウコウヲ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ムキッパナシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートが1件あった。若干薄かったか面積が足らなかったのではと思う。</t>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウスカッタカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メンセキガタラナカッタノデハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラの画角がおかしい</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積が小さく、更に薄く出たようだ</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの角度がさらにおかしくなって、判定できない</t>
+    <rPh sb="4" eb="6">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でたかも？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラは雲の中</t>
+    <rPh sb="4" eb="5">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの角度が中央方向を向きなおした</t>
+    <rPh sb="4" eb="6">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚みがない</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの角度が完全に元に戻った</t>
+    <rPh sb="4" eb="6">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの向きが上に向かった・・・</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一瞬出たようだが、曇り</t>
+    <rPh sb="0" eb="2">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一瞬出た</t>
+    <rPh sb="0" eb="2">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出たが曇り</t>
+    <rPh sb="0" eb="1">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積が足りないし、もやってる</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分厚く出た</t>
+    <rPh sb="0" eb="2">
+      <t>ブアツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄いし、曇り</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出たけど、めっちゃ曇り</t>
+    <rPh sb="0" eb="1">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出たけど、面積が小さい</t>
+    <rPh sb="0" eb="1">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの角度が戻った</t>
+    <rPh sb="4" eb="6">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曇りなのだけど、風がないのだろうと思うが写真映えする</t>
+    <rPh sb="0" eb="1">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やや厚みが足りないかな？</t>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラが傾いちゃった・・・</t>
+    <rPh sb="4" eb="5">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚みが足りない</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微妙。厚みが足りなさすぎな気がする。曇りだからか？</t>
+    <rPh sb="0" eb="2">
+      <t>ビミョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出たけど、絶賛曇り</t>
+    <rPh sb="0" eb="1">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚みと面積が足らない</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラ画像の配信が止まった</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterによると見事だったらしい</t>
+    <rPh sb="11" eb="13">
+      <t>ミゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラは明後日ながら、雲に覆われているのだが、Twitterでは報告がある。場所によってはよかったらしい</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>アサッテ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北山カメラの画像がない</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterで報告</t>
+    <rPh sb="8" eb="10">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twitterでは報告があるが、北山カメラでは全く写っていない</t>
+    <rPh sb="9" eb="11">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -668,7 +1158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -759,7 +1249,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -827,646 +1317,646 @@
             <c:numRef>
               <c:f>高千穂!$A$1:$A$213</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="213"/>
                 <c:pt idx="0">
-                  <c:v>40086.0</c:v>
+                  <c:v>40086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40087.0</c:v>
+                  <c:v>40087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40088.0</c:v>
+                  <c:v>40088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40089.0</c:v>
+                  <c:v>40089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40090.0</c:v>
+                  <c:v>40090</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40091.0</c:v>
+                  <c:v>40091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40092.0</c:v>
+                  <c:v>40092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40093.0</c:v>
+                  <c:v>40093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40094.0</c:v>
+                  <c:v>40094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40095.0</c:v>
+                  <c:v>40095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40096.0</c:v>
+                  <c:v>40096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40097.0</c:v>
+                  <c:v>40097</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40098.0</c:v>
+                  <c:v>40098</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40099.0</c:v>
+                  <c:v>40099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40100.0</c:v>
+                  <c:v>40100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40101.0</c:v>
+                  <c:v>40101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40102.0</c:v>
+                  <c:v>40102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40103.0</c:v>
+                  <c:v>40103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40104.0</c:v>
+                  <c:v>40104</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40105.0</c:v>
+                  <c:v>40105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40106.0</c:v>
+                  <c:v>40106</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40107.0</c:v>
+                  <c:v>40107</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40108.0</c:v>
+                  <c:v>40108</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40109.0</c:v>
+                  <c:v>40109</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40110.0</c:v>
+                  <c:v>40110</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40111.0</c:v>
+                  <c:v>40111</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40112.0</c:v>
+                  <c:v>40112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40113.0</c:v>
+                  <c:v>40113</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40114.0</c:v>
+                  <c:v>40114</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40115.0</c:v>
+                  <c:v>40115</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40116.0</c:v>
+                  <c:v>40116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40117.0</c:v>
+                  <c:v>40117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40118.0</c:v>
+                  <c:v>40118</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40119.0</c:v>
+                  <c:v>40119</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40120.0</c:v>
+                  <c:v>40120</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40121.0</c:v>
+                  <c:v>40121</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40122.0</c:v>
+                  <c:v>40122</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40123.0</c:v>
+                  <c:v>40123</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40124.0</c:v>
+                  <c:v>40124</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40125.0</c:v>
+                  <c:v>40125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40126.0</c:v>
+                  <c:v>40126</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40127.0</c:v>
+                  <c:v>40127</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40128.0</c:v>
+                  <c:v>40128</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40129.0</c:v>
+                  <c:v>40129</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40130.0</c:v>
+                  <c:v>40130</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40131.0</c:v>
+                  <c:v>40131</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40132.0</c:v>
+                  <c:v>40132</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40133.0</c:v>
+                  <c:v>40133</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40134.0</c:v>
+                  <c:v>40134</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40135.0</c:v>
+                  <c:v>40135</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>40136.0</c:v>
+                  <c:v>40136</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40137.0</c:v>
+                  <c:v>40137</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>40138.0</c:v>
+                  <c:v>40138</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40139.0</c:v>
+                  <c:v>40139</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>40140.0</c:v>
+                  <c:v>40140</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>40141.0</c:v>
+                  <c:v>40141</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40142.0</c:v>
+                  <c:v>40142</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>40143.0</c:v>
+                  <c:v>40143</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>40144.0</c:v>
+                  <c:v>40144</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>40145.0</c:v>
+                  <c:v>40145</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40146.0</c:v>
+                  <c:v>40146</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40482.0</c:v>
+                  <c:v>40482</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40483.0</c:v>
+                  <c:v>40483</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>40484.0</c:v>
+                  <c:v>40484</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40485.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>40486.0</c:v>
+                  <c:v>40486</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40487.0</c:v>
+                  <c:v>40487</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>40488.0</c:v>
+                  <c:v>40488</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40489.0</c:v>
+                  <c:v>40489</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>40490.0</c:v>
+                  <c:v>40490</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>40491.0</c:v>
+                  <c:v>40491</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40492.0</c:v>
+                  <c:v>40492</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40493.0</c:v>
+                  <c:v>40493</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40494.0</c:v>
+                  <c:v>40494</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>40495.0</c:v>
+                  <c:v>40495</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40496.0</c:v>
+                  <c:v>40496</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>40497.0</c:v>
+                  <c:v>40497</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>40498.0</c:v>
+                  <c:v>40498</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>40499.0</c:v>
+                  <c:v>40499</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>40500.0</c:v>
+                  <c:v>40500</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>40501.0</c:v>
+                  <c:v>40501</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>40502.0</c:v>
+                  <c:v>40502</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>40503.0</c:v>
+                  <c:v>40503</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>40504.0</c:v>
+                  <c:v>40504</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40505.0</c:v>
+                  <c:v>40505</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40506.0</c:v>
+                  <c:v>40506</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>40507.0</c:v>
+                  <c:v>40507</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>40508.0</c:v>
+                  <c:v>40508</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>40509.0</c:v>
+                  <c:v>40509</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>40510.0</c:v>
+                  <c:v>40510</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>40511.0</c:v>
+                  <c:v>40511</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>40786.0</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>40787.0</c:v>
+                  <c:v>40787</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>40788.0</c:v>
+                  <c:v>40788</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>40789.0</c:v>
+                  <c:v>40789</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>40790.0</c:v>
+                  <c:v>40790</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>40791.0</c:v>
+                  <c:v>40791</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>40792.0</c:v>
+                  <c:v>40792</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>40793.0</c:v>
+                  <c:v>40793</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>40794.0</c:v>
+                  <c:v>40794</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>40795.0</c:v>
+                  <c:v>40795</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>40796.0</c:v>
+                  <c:v>40796</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>40797.0</c:v>
+                  <c:v>40797</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>40798.0</c:v>
+                  <c:v>40798</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>40799.0</c:v>
+                  <c:v>40799</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>40800.0</c:v>
+                  <c:v>40800</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>40801.0</c:v>
+                  <c:v>40801</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>40802.0</c:v>
+                  <c:v>40802</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>40803.0</c:v>
+                  <c:v>40803</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>40804.0</c:v>
+                  <c:v>40804</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>40805.0</c:v>
+                  <c:v>40805</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>40806.0</c:v>
+                  <c:v>40806</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>40807.0</c:v>
+                  <c:v>40807</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>40808.0</c:v>
+                  <c:v>40808</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>40809.0</c:v>
+                  <c:v>40809</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>40810.0</c:v>
+                  <c:v>40810</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>40811.0</c:v>
+                  <c:v>40811</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>40812.0</c:v>
+                  <c:v>40812</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>40813.0</c:v>
+                  <c:v>40813</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>40814.0</c:v>
+                  <c:v>40814</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>40815.0</c:v>
+                  <c:v>40815</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>40816.0</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>40817.0</c:v>
+                  <c:v>40817</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>40818.0</c:v>
+                  <c:v>40818</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>40819.0</c:v>
+                  <c:v>40819</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>40820.0</c:v>
+                  <c:v>40820</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>40821.0</c:v>
+                  <c:v>40821</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>40822.0</c:v>
+                  <c:v>40822</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>40823.0</c:v>
+                  <c:v>40823</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>40824.0</c:v>
+                  <c:v>40824</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>40825.0</c:v>
+                  <c:v>40825</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>40826.0</c:v>
+                  <c:v>40826</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>40827.0</c:v>
+                  <c:v>40827</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>40828.0</c:v>
+                  <c:v>40828</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>40829.0</c:v>
+                  <c:v>40829</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>40830.0</c:v>
+                  <c:v>40830</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>40831.0</c:v>
+                  <c:v>40831</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>40832.0</c:v>
+                  <c:v>40832</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>40833.0</c:v>
+                  <c:v>40833</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>40834.0</c:v>
+                  <c:v>40834</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>40835.0</c:v>
+                  <c:v>40835</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>40836.0</c:v>
+                  <c:v>40836</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>40837.0</c:v>
+                  <c:v>40837</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>40838.0</c:v>
+                  <c:v>40838</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>40839.0</c:v>
+                  <c:v>40839</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>40840.0</c:v>
+                  <c:v>40840</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>40841.0</c:v>
+                  <c:v>40841</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>40842.0</c:v>
+                  <c:v>40842</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>40843.0</c:v>
+                  <c:v>40843</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>40844.0</c:v>
+                  <c:v>40844</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>40845.0</c:v>
+                  <c:v>40845</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>40846.0</c:v>
+                  <c:v>40846</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>40847.0</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>40848.0</c:v>
+                  <c:v>40848</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>40849.0</c:v>
+                  <c:v>40849</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>40850.0</c:v>
+                  <c:v>40850</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>40851.0</c:v>
+                  <c:v>40851</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>40852.0</c:v>
+                  <c:v>40852</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>40853.0</c:v>
+                  <c:v>40853</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>40854.0</c:v>
+                  <c:v>40854</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>40855.0</c:v>
+                  <c:v>40855</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>40856.0</c:v>
+                  <c:v>40856</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>40857.0</c:v>
+                  <c:v>40857</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>40858.0</c:v>
+                  <c:v>40858</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>40859.0</c:v>
+                  <c:v>40859</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>40860.0</c:v>
+                  <c:v>40860</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>40861.0</c:v>
+                  <c:v>40861</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>40862.0</c:v>
+                  <c:v>40862</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>40863.0</c:v>
+                  <c:v>40863</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>40864.0</c:v>
+                  <c:v>40864</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>40865.0</c:v>
+                  <c:v>40865</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>40866.0</c:v>
+                  <c:v>40866</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>40867.0</c:v>
+                  <c:v>40867</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>40868.0</c:v>
+                  <c:v>40868</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>40869.0</c:v>
+                  <c:v>40869</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>40870.0</c:v>
+                  <c:v>40870</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>40871.0</c:v>
+                  <c:v>40871</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>40872.0</c:v>
+                  <c:v>40872</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>40873.0</c:v>
+                  <c:v>40873</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>40874.0</c:v>
+                  <c:v>40874</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>40875.0</c:v>
+                  <c:v>40875</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>40876.0</c:v>
+                  <c:v>40876</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>40877.0</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>40878.0</c:v>
+                  <c:v>40878</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>40879.0</c:v>
+                  <c:v>40879</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>40880.0</c:v>
+                  <c:v>40880</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>40881.0</c:v>
+                  <c:v>40881</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>40882.0</c:v>
+                  <c:v>40882</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>40883.0</c:v>
+                  <c:v>40883</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>40884.0</c:v>
+                  <c:v>40884</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>40885.0</c:v>
+                  <c:v>40885</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>40886.0</c:v>
+                  <c:v>40886</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>40887.0</c:v>
+                  <c:v>40887</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>40888.0</c:v>
+                  <c:v>40888</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>40889.0</c:v>
+                  <c:v>40889</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>40890.0</c:v>
+                  <c:v>40890</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>40891.0</c:v>
+                  <c:v>40891</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>40892.0</c:v>
+                  <c:v>40892</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>40893.0</c:v>
+                  <c:v>40893</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>40894.0</c:v>
+                  <c:v>40894</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>40895.0</c:v>
+                  <c:v>40895</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>40896.0</c:v>
+                  <c:v>40896</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>40897.0</c:v>
+                  <c:v>40897</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>40898.0</c:v>
+                  <c:v>40898</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>40899.0</c:v>
+                  <c:v>40899</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>40900.0</c:v>
+                  <c:v>40900</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>40901.0</c:v>
+                  <c:v>40901</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>40902.0</c:v>
+                  <c:v>40902</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>40903.0</c:v>
+                  <c:v>40903</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>40904.0</c:v>
+                  <c:v>40904</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>40905.0</c:v>
+                  <c:v>40905</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>40906.0</c:v>
+                  <c:v>40906</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>40907.0</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,648 +1968,653 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="213"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B408-4A4F-9C1E-0FAAC396F9DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2129,11 +2624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-320190816"/>
-        <c:axId val="-320189024"/>
+        <c:axId val="-1756688960"/>
+        <c:axId val="-1665409280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-320190816"/>
+        <c:axId val="-1756688960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,12 +2685,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320189024"/>
+        <c:crossAx val="-1665409280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-320189024"/>
+        <c:axId val="-1665409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2747,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320190816"/>
+        <c:crossAx val="-1756688960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3214,15 +3709,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F917"/>
+  <dimension ref="A1:F1464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E915" sqref="E915"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -13018,7 +13513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A849" s="1">
         <v>41208</v>
       </c>
@@ -13029,7 +13524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A850" s="1">
         <v>41209</v>
       </c>
@@ -13040,7 +13535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A851" s="1">
         <v>41210</v>
       </c>
@@ -13051,7 +13546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A852" s="1">
         <v>41211</v>
       </c>
@@ -13062,7 +13557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A853" s="1">
         <v>41212</v>
       </c>
@@ -13073,7 +13568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A854" s="1">
         <v>41213</v>
       </c>
@@ -13084,7 +13579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A855" s="1">
         <v>41214</v>
       </c>
@@ -13095,7 +13590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A856" s="1">
         <v>41215</v>
       </c>
@@ -13105,8 +13600,11 @@
       <c r="C856" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D856" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A857" s="1">
         <v>41216</v>
       </c>
@@ -13117,7 +13615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A858" s="1">
         <v>41217</v>
       </c>
@@ -13127,8 +13625,11 @@
       <c r="C858" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D858" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A859" s="1">
         <v>41218</v>
       </c>
@@ -13138,8 +13639,11 @@
       <c r="C859" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D859" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A860" s="1">
         <v>41219</v>
       </c>
@@ -13150,7 +13654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A861" s="1">
         <v>41220</v>
       </c>
@@ -13161,7 +13665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A862" s="1">
         <v>41221</v>
       </c>
@@ -13172,7 +13676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A863" s="1">
         <v>41222</v>
       </c>
@@ -13183,7 +13687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A864" s="1">
         <v>41223</v>
       </c>
@@ -13216,7 +13720,7 @@
         <v>8</v>
       </c>
       <c r="D866" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.15">
@@ -13395,7 +13899,7 @@
         <v>8</v>
       </c>
       <c r="D882" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.15">
@@ -13442,7 +13946,7 @@
         <v>8</v>
       </c>
       <c r="D886" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.15">
@@ -13489,7 +13993,7 @@
         <v>8</v>
       </c>
       <c r="D890" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.15">
@@ -13536,7 +14040,7 @@
         <v>8</v>
       </c>
       <c r="D894" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.15">
@@ -13561,10 +14065,10 @@
         <v>8</v>
       </c>
       <c r="D896" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A897" s="1">
         <v>41256</v>
       </c>
@@ -13575,7 +14079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A898" s="1">
         <v>41257</v>
       </c>
@@ -13586,7 +14090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A899" s="1">
         <v>41258</v>
       </c>
@@ -13597,7 +14101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A900" s="1">
         <v>41259</v>
       </c>
@@ -13608,7 +14112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A901" s="1">
         <v>41260</v>
       </c>
@@ -13618,11 +14122,11 @@
       <c r="C901" t="s">
         <v>13</v>
       </c>
-      <c r="D901" t="s">
+      <c r="E901" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A902" s="1">
         <v>41261</v>
       </c>
@@ -13632,11 +14136,11 @@
       <c r="C902" t="s">
         <v>13</v>
       </c>
-      <c r="D902" t="s">
+      <c r="E902" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A903" s="1">
         <v>41262</v>
       </c>
@@ -13646,11 +14150,11 @@
       <c r="C903" t="s">
         <v>13</v>
       </c>
-      <c r="D903" t="s">
+      <c r="E903" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A904" s="1">
         <v>41263</v>
       </c>
@@ -13660,11 +14164,11 @@
       <c r="C904" t="s">
         <v>13</v>
       </c>
-      <c r="D904" t="s">
+      <c r="E904" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A905" s="1">
         <v>41264</v>
       </c>
@@ -13674,11 +14178,11 @@
       <c r="C905" t="s">
         <v>13</v>
       </c>
-      <c r="D905" t="s">
+      <c r="E905" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A906" s="1">
         <v>41265</v>
       </c>
@@ -13688,11 +14192,11 @@
       <c r="C906" t="s">
         <v>13</v>
       </c>
-      <c r="D906" t="s">
+      <c r="E906" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A907" s="1">
         <v>41266</v>
       </c>
@@ -13702,11 +14206,11 @@
       <c r="C907" t="s">
         <v>13</v>
       </c>
-      <c r="D907" t="s">
+      <c r="E907" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A908" s="1">
         <v>41267</v>
       </c>
@@ -13716,11 +14220,11 @@
       <c r="C908" t="s">
         <v>13</v>
       </c>
-      <c r="D908" t="s">
+      <c r="E908" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A909" s="1">
         <v>41268</v>
       </c>
@@ -13730,11 +14234,11 @@
       <c r="C909" t="s">
         <v>13</v>
       </c>
-      <c r="D909" t="s">
+      <c r="E909" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A910" s="1">
         <v>41269</v>
       </c>
@@ -13744,11 +14248,11 @@
       <c r="C910" t="s">
         <v>13</v>
       </c>
-      <c r="D910" t="s">
+      <c r="E910" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A911" s="1">
         <v>41270</v>
       </c>
@@ -13758,11 +14262,11 @@
       <c r="C911" t="s">
         <v>13</v>
       </c>
-      <c r="D911" t="s">
+      <c r="E911" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A912" s="1">
         <v>41271</v>
       </c>
@@ -13772,7 +14276,7 @@
       <c r="C912" t="s">
         <v>13</v>
       </c>
-      <c r="D912" t="s">
+      <c r="E912" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13786,7 +14290,7 @@
       <c r="C913" t="s">
         <v>13</v>
       </c>
-      <c r="D913" t="s">
+      <c r="E913" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13801,18 +14305,27 @@
         <v>13</v>
       </c>
       <c r="D914" t="s">
+        <v>128</v>
+      </c>
+      <c r="E914" t="s">
         <v>38</v>
-      </c>
-      <c r="E914" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A915" s="1">
         <v>41274</v>
       </c>
-      <c r="B915" t="s">
-        <v>0</v>
+      <c r="B915">
+        <v>1</v>
+      </c>
+      <c r="C915" t="s">
+        <v>169</v>
+      </c>
+      <c r="D915" t="s">
+        <v>170</v>
+      </c>
+      <c r="E915" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.15">
@@ -13822,6 +14335,12 @@
       <c r="B916" t="s">
         <v>0</v>
       </c>
+      <c r="C916" t="s">
+        <v>13</v>
+      </c>
+      <c r="E916" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A917" s="1">
@@ -13829,6 +14348,5252 @@
       </c>
       <c r="B917" t="s">
         <v>0</v>
+      </c>
+      <c r="C917" t="s">
+        <v>13</v>
+      </c>
+      <c r="E917" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A918" s="1">
+        <v>41277</v>
+      </c>
+      <c r="B918" t="s">
+        <v>0</v>
+      </c>
+      <c r="C918" t="s">
+        <v>13</v>
+      </c>
+      <c r="E918" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A919" s="1">
+        <v>41278</v>
+      </c>
+      <c r="B919" t="s">
+        <v>0</v>
+      </c>
+      <c r="C919" t="s">
+        <v>13</v>
+      </c>
+      <c r="E919" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A920" s="1">
+        <v>41279</v>
+      </c>
+      <c r="B920" t="s">
+        <v>0</v>
+      </c>
+      <c r="C920" t="s">
+        <v>13</v>
+      </c>
+      <c r="E920" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A921" s="1">
+        <v>41280</v>
+      </c>
+      <c r="B921" t="s">
+        <v>0</v>
+      </c>
+      <c r="C921" t="s">
+        <v>13</v>
+      </c>
+      <c r="E921" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A922" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B922" t="s">
+        <v>0</v>
+      </c>
+      <c r="C922" t="s">
+        <v>13</v>
+      </c>
+      <c r="E922" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A923" s="1">
+        <v>41282</v>
+      </c>
+      <c r="B923" t="s">
+        <v>0</v>
+      </c>
+      <c r="C923" t="s">
+        <v>13</v>
+      </c>
+      <c r="E923" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A924" s="1">
+        <v>41283</v>
+      </c>
+      <c r="B924" t="s">
+        <v>0</v>
+      </c>
+      <c r="C924" t="s">
+        <v>13</v>
+      </c>
+      <c r="E924" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A925" s="1">
+        <v>41284</v>
+      </c>
+      <c r="B925" t="s">
+        <v>0</v>
+      </c>
+      <c r="C925" t="s">
+        <v>13</v>
+      </c>
+      <c r="E925" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A926" s="1">
+        <v>41285</v>
+      </c>
+      <c r="B926" t="s">
+        <v>0</v>
+      </c>
+      <c r="C926" t="s">
+        <v>13</v>
+      </c>
+      <c r="E926" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A927" s="1">
+        <v>41286</v>
+      </c>
+      <c r="B927" t="s">
+        <v>0</v>
+      </c>
+      <c r="C927" t="s">
+        <v>13</v>
+      </c>
+      <c r="E927" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A928" s="1">
+        <v>41287</v>
+      </c>
+      <c r="B928" t="s">
+        <v>0</v>
+      </c>
+      <c r="C928" t="s">
+        <v>13</v>
+      </c>
+      <c r="E928" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A929" s="1">
+        <v>41288</v>
+      </c>
+      <c r="B929" t="s">
+        <v>0</v>
+      </c>
+      <c r="C929" t="s">
+        <v>13</v>
+      </c>
+      <c r="E929" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A930" s="1">
+        <v>41289</v>
+      </c>
+      <c r="B930" t="s">
+        <v>0</v>
+      </c>
+      <c r="C930" t="s">
+        <v>13</v>
+      </c>
+      <c r="E930" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A931" s="1">
+        <v>41290</v>
+      </c>
+      <c r="B931" t="s">
+        <v>0</v>
+      </c>
+      <c r="C931" t="s">
+        <v>13</v>
+      </c>
+      <c r="E931" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A932" s="1">
+        <v>41291</v>
+      </c>
+      <c r="B932" t="s">
+        <v>0</v>
+      </c>
+      <c r="C932" t="s">
+        <v>13</v>
+      </c>
+      <c r="E932" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A933" s="1">
+        <v>41292</v>
+      </c>
+      <c r="B933" t="s">
+        <v>0</v>
+      </c>
+      <c r="C933" t="s">
+        <v>13</v>
+      </c>
+      <c r="E933" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A934" s="1">
+        <v>41293</v>
+      </c>
+      <c r="B934" t="s">
+        <v>0</v>
+      </c>
+      <c r="C934" t="s">
+        <v>13</v>
+      </c>
+      <c r="E934" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A935" s="1">
+        <v>41294</v>
+      </c>
+      <c r="B935" t="s">
+        <v>0</v>
+      </c>
+      <c r="C935" t="s">
+        <v>13</v>
+      </c>
+      <c r="E935" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A936" s="1">
+        <v>41295</v>
+      </c>
+      <c r="B936" t="s">
+        <v>0</v>
+      </c>
+      <c r="C936" t="s">
+        <v>13</v>
+      </c>
+      <c r="E936" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A937" s="1">
+        <v>41296</v>
+      </c>
+      <c r="B937" t="s">
+        <v>0</v>
+      </c>
+      <c r="C937" t="s">
+        <v>13</v>
+      </c>
+      <c r="E937" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A938" s="1">
+        <v>41297</v>
+      </c>
+      <c r="B938" t="s">
+        <v>0</v>
+      </c>
+      <c r="C938" t="s">
+        <v>13</v>
+      </c>
+      <c r="E938" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A939" s="1">
+        <v>41298</v>
+      </c>
+      <c r="B939" t="s">
+        <v>0</v>
+      </c>
+      <c r="C939" t="s">
+        <v>13</v>
+      </c>
+      <c r="E939" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A940" s="1">
+        <v>41299</v>
+      </c>
+      <c r="B940" t="s">
+        <v>0</v>
+      </c>
+      <c r="C940" t="s">
+        <v>13</v>
+      </c>
+      <c r="E940" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A941" s="1">
+        <v>41300</v>
+      </c>
+      <c r="B941" t="s">
+        <v>0</v>
+      </c>
+      <c r="C941" t="s">
+        <v>13</v>
+      </c>
+      <c r="E941" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A942" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B942">
+        <v>1</v>
+      </c>
+      <c r="C942" t="s">
+        <v>8</v>
+      </c>
+      <c r="D942" t="s">
+        <v>170</v>
+      </c>
+      <c r="E942" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A943" s="1">
+        <v>41302</v>
+      </c>
+      <c r="B943" t="s">
+        <v>0</v>
+      </c>
+      <c r="C943" t="s">
+        <v>13</v>
+      </c>
+      <c r="D943" t="s">
+        <v>132</v>
+      </c>
+      <c r="E943" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A944" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B944" t="s">
+        <v>0</v>
+      </c>
+      <c r="C944" t="s">
+        <v>13</v>
+      </c>
+      <c r="E944" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A945" s="1">
+        <v>41304</v>
+      </c>
+      <c r="B945" t="s">
+        <v>0</v>
+      </c>
+      <c r="C945" t="s">
+        <v>13</v>
+      </c>
+      <c r="E945" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A946" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B946" t="s">
+        <v>0</v>
+      </c>
+      <c r="C946" t="s">
+        <v>13</v>
+      </c>
+      <c r="E946" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A947" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B947" t="s">
+        <v>0</v>
+      </c>
+      <c r="C947" t="s">
+        <v>13</v>
+      </c>
+      <c r="E947" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A948" s="1">
+        <v>41307</v>
+      </c>
+      <c r="B948" t="s">
+        <v>0</v>
+      </c>
+      <c r="C948" t="s">
+        <v>13</v>
+      </c>
+      <c r="E948" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A949" s="1">
+        <v>41308</v>
+      </c>
+      <c r="B949" t="s">
+        <v>0</v>
+      </c>
+      <c r="C949" t="s">
+        <v>13</v>
+      </c>
+      <c r="E949" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A950" s="1">
+        <v>41309</v>
+      </c>
+      <c r="B950" t="s">
+        <v>0</v>
+      </c>
+      <c r="C950" t="s">
+        <v>13</v>
+      </c>
+      <c r="E950" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A951" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B951" t="s">
+        <v>0</v>
+      </c>
+      <c r="C951" t="s">
+        <v>13</v>
+      </c>
+      <c r="E951" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A952" s="1">
+        <v>41311</v>
+      </c>
+      <c r="B952" t="s">
+        <v>0</v>
+      </c>
+      <c r="C952" t="s">
+        <v>13</v>
+      </c>
+      <c r="E952" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A953" s="1">
+        <v>41312</v>
+      </c>
+      <c r="B953" t="s">
+        <v>0</v>
+      </c>
+      <c r="C953" t="s">
+        <v>13</v>
+      </c>
+      <c r="E953" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A954" s="1">
+        <v>41313</v>
+      </c>
+      <c r="B954" t="s">
+        <v>0</v>
+      </c>
+      <c r="C954" t="s">
+        <v>13</v>
+      </c>
+      <c r="E954" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A955" s="1">
+        <v>41314</v>
+      </c>
+      <c r="B955" t="s">
+        <v>0</v>
+      </c>
+      <c r="C955" t="s">
+        <v>13</v>
+      </c>
+      <c r="E955" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A956" s="1">
+        <v>41315</v>
+      </c>
+      <c r="B956" t="s">
+        <v>0</v>
+      </c>
+      <c r="C956" t="s">
+        <v>13</v>
+      </c>
+      <c r="E956" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A957" s="1">
+        <v>41316</v>
+      </c>
+      <c r="B957" t="s">
+        <v>0</v>
+      </c>
+      <c r="C957" t="s">
+        <v>13</v>
+      </c>
+      <c r="E957" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A958" s="1">
+        <v>41317</v>
+      </c>
+      <c r="B958" t="s">
+        <v>0</v>
+      </c>
+      <c r="C958" t="s">
+        <v>13</v>
+      </c>
+      <c r="E958" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A959" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B959" t="s">
+        <v>0</v>
+      </c>
+      <c r="C959" t="s">
+        <v>13</v>
+      </c>
+      <c r="E959" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A960" s="1">
+        <v>41319</v>
+      </c>
+      <c r="B960" t="s">
+        <v>0</v>
+      </c>
+      <c r="C960" t="s">
+        <v>13</v>
+      </c>
+      <c r="E960" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A961" s="1">
+        <v>41320</v>
+      </c>
+      <c r="B961" t="s">
+        <v>0</v>
+      </c>
+      <c r="C961" t="s">
+        <v>13</v>
+      </c>
+      <c r="E961" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A962" s="1">
+        <v>41321</v>
+      </c>
+      <c r="B962" t="s">
+        <v>0</v>
+      </c>
+      <c r="C962" t="s">
+        <v>13</v>
+      </c>
+      <c r="E962" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A963" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B963" t="s">
+        <v>0</v>
+      </c>
+      <c r="C963" t="s">
+        <v>13</v>
+      </c>
+      <c r="E963" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A964" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B964" t="s">
+        <v>0</v>
+      </c>
+      <c r="C964" t="s">
+        <v>13</v>
+      </c>
+      <c r="E964" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A965" s="1">
+        <v>41324</v>
+      </c>
+      <c r="B965" t="s">
+        <v>0</v>
+      </c>
+      <c r="C965" t="s">
+        <v>13</v>
+      </c>
+      <c r="E965" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A966" s="1">
+        <v>41325</v>
+      </c>
+      <c r="B966" t="s">
+        <v>0</v>
+      </c>
+      <c r="C966" t="s">
+        <v>13</v>
+      </c>
+      <c r="E966" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A967" s="1">
+        <v>41326</v>
+      </c>
+      <c r="B967" t="s">
+        <v>0</v>
+      </c>
+      <c r="C967" t="s">
+        <v>13</v>
+      </c>
+      <c r="E967" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A968" s="1">
+        <v>41327</v>
+      </c>
+      <c r="B968">
+        <v>0</v>
+      </c>
+      <c r="C968" t="s">
+        <v>140</v>
+      </c>
+      <c r="E968" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A969" s="1">
+        <v>41328</v>
+      </c>
+      <c r="B969">
+        <v>0</v>
+      </c>
+      <c r="C969" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A970" s="1">
+        <v>41329</v>
+      </c>
+      <c r="B970">
+        <v>0</v>
+      </c>
+      <c r="C970" t="s">
+        <v>140</v>
+      </c>
+      <c r="D970" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A971" s="1">
+        <v>41330</v>
+      </c>
+      <c r="B971">
+        <v>0</v>
+      </c>
+      <c r="C971" t="s">
+        <v>140</v>
+      </c>
+      <c r="D971" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A972" s="1">
+        <v>41331</v>
+      </c>
+      <c r="B972">
+        <v>0</v>
+      </c>
+      <c r="C972" t="s">
+        <v>140</v>
+      </c>
+      <c r="D972" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A973" s="1">
+        <v>41332</v>
+      </c>
+      <c r="B973">
+        <v>0</v>
+      </c>
+      <c r="C973" t="s">
+        <v>140</v>
+      </c>
+      <c r="D973" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A974" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B974">
+        <v>0</v>
+      </c>
+      <c r="C974" t="s">
+        <v>140</v>
+      </c>
+      <c r="D974" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A975" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B975">
+        <v>0</v>
+      </c>
+      <c r="C975" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A976" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B976">
+        <v>0</v>
+      </c>
+      <c r="C976" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A977" s="1">
+        <v>41336</v>
+      </c>
+      <c r="B977">
+        <v>0</v>
+      </c>
+      <c r="C977" t="s">
+        <v>140</v>
+      </c>
+      <c r="D977" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A978" s="1">
+        <v>41337</v>
+      </c>
+      <c r="B978">
+        <v>0</v>
+      </c>
+      <c r="C978" t="s">
+        <v>140</v>
+      </c>
+      <c r="D978" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A979" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B979">
+        <v>0</v>
+      </c>
+      <c r="C979" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A980" s="1">
+        <v>41339</v>
+      </c>
+      <c r="B980">
+        <v>0</v>
+      </c>
+      <c r="C980" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A981" s="1">
+        <v>41340</v>
+      </c>
+      <c r="B981">
+        <v>0</v>
+      </c>
+      <c r="C981" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A982" s="1">
+        <v>41341</v>
+      </c>
+      <c r="B982">
+        <v>0</v>
+      </c>
+      <c r="C982" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A983" s="1">
+        <v>41342</v>
+      </c>
+      <c r="B983">
+        <v>0</v>
+      </c>
+      <c r="C983" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A984" s="1">
+        <v>41343</v>
+      </c>
+      <c r="B984">
+        <v>0</v>
+      </c>
+      <c r="C984" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A985" s="1">
+        <v>41344</v>
+      </c>
+      <c r="B985">
+        <v>0</v>
+      </c>
+      <c r="C985" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A986" s="1">
+        <v>41345</v>
+      </c>
+      <c r="B986">
+        <v>0</v>
+      </c>
+      <c r="C986" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A987" s="1">
+        <v>41346</v>
+      </c>
+      <c r="B987">
+        <v>0</v>
+      </c>
+      <c r="C987" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A988" s="1">
+        <v>41347</v>
+      </c>
+      <c r="B988">
+        <v>0</v>
+      </c>
+      <c r="C988" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A989" s="1">
+        <v>41348</v>
+      </c>
+      <c r="B989" t="s">
+        <v>0</v>
+      </c>
+      <c r="C989" t="s">
+        <v>141</v>
+      </c>
+      <c r="E989" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A990" s="1">
+        <v>41349</v>
+      </c>
+      <c r="B990" t="s">
+        <v>0</v>
+      </c>
+      <c r="C990" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A991" s="1">
+        <v>41350</v>
+      </c>
+      <c r="B991" t="s">
+        <v>0</v>
+      </c>
+      <c r="C991" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A992" s="1">
+        <v>41351</v>
+      </c>
+      <c r="B992" t="s">
+        <v>0</v>
+      </c>
+      <c r="C992" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A993" s="1">
+        <v>41352</v>
+      </c>
+      <c r="B993" t="s">
+        <v>0</v>
+      </c>
+      <c r="C993" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A994" s="1">
+        <v>41353</v>
+      </c>
+      <c r="B994" t="s">
+        <v>0</v>
+      </c>
+      <c r="C994" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A995" s="1">
+        <v>41354</v>
+      </c>
+      <c r="B995" t="s">
+        <v>0</v>
+      </c>
+      <c r="C995" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A996" s="1">
+        <v>41355</v>
+      </c>
+      <c r="B996" t="s">
+        <v>0</v>
+      </c>
+      <c r="C996" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A997" s="1">
+        <v>41356</v>
+      </c>
+      <c r="B997" t="s">
+        <v>0</v>
+      </c>
+      <c r="C997" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A998" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B998" t="s">
+        <v>0</v>
+      </c>
+      <c r="C998" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A999" s="1">
+        <v>41358</v>
+      </c>
+      <c r="B999" t="s">
+        <v>0</v>
+      </c>
+      <c r="C999" t="s">
+        <v>141</v>
+      </c>
+      <c r="D999" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1000" s="1">
+        <v>41359</v>
+      </c>
+      <c r="B1000">
+        <v>0</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1001" s="1">
+        <v>41360</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1002" s="1">
+        <v>41361</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1003" s="1">
+        <v>41362</v>
+      </c>
+      <c r="B1003">
+        <v>0</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1004" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B1004">
+        <v>0</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1005" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B1005">
+        <v>0</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1006" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B1006">
+        <v>0</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1007" s="1">
+        <v>41366</v>
+      </c>
+      <c r="B1007">
+        <v>1</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1008" s="1">
+        <v>41367</v>
+      </c>
+      <c r="B1008">
+        <v>1</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1009" s="1">
+        <v>41368</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1010" s="1">
+        <v>41369</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1011" s="1">
+        <v>41370</v>
+      </c>
+      <c r="B1011">
+        <v>0</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1012" s="1">
+        <v>41371</v>
+      </c>
+      <c r="B1012">
+        <v>0</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1013" s="1">
+        <v>41372</v>
+      </c>
+      <c r="B1013">
+        <v>0</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1014" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B1014">
+        <v>0</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1015" s="1">
+        <v>41374</v>
+      </c>
+      <c r="B1015">
+        <v>0</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1016" s="1">
+        <v>41375</v>
+      </c>
+      <c r="B1016">
+        <v>0</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1017" s="1">
+        <v>41376</v>
+      </c>
+      <c r="B1017">
+        <v>0</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1018" s="1">
+        <v>41377</v>
+      </c>
+      <c r="B1018">
+        <v>0</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1019" s="1">
+        <v>41378</v>
+      </c>
+      <c r="B1019">
+        <v>0</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1020" s="1">
+        <v>41379</v>
+      </c>
+      <c r="B1020">
+        <v>0</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1021" s="1">
+        <v>41380</v>
+      </c>
+      <c r="B1021">
+        <v>0</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1022" s="1">
+        <v>41381</v>
+      </c>
+      <c r="B1022">
+        <v>0</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1023" s="1">
+        <v>41382</v>
+      </c>
+      <c r="B1023">
+        <v>0</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1024" s="1">
+        <v>41383</v>
+      </c>
+      <c r="B1024">
+        <v>0</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1025" s="1">
+        <v>41384</v>
+      </c>
+      <c r="B1025">
+        <v>0</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1026" s="1">
+        <v>41385</v>
+      </c>
+      <c r="B1026">
+        <v>0</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1027" s="1">
+        <v>41386</v>
+      </c>
+      <c r="B1027">
+        <v>0</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1028" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1028">
+        <v>0</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1029" s="1">
+        <v>41388</v>
+      </c>
+      <c r="B1029">
+        <v>0</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1030" s="1">
+        <v>41389</v>
+      </c>
+      <c r="B1030">
+        <v>0</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1031" s="1">
+        <v>41390</v>
+      </c>
+      <c r="B1031">
+        <v>0</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1032" s="1">
+        <v>41391</v>
+      </c>
+      <c r="B1032">
+        <v>1</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1033" s="1">
+        <v>41392</v>
+      </c>
+      <c r="B1033">
+        <v>0</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1034" s="1">
+        <v>41393</v>
+      </c>
+      <c r="B1034">
+        <v>0</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1035" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B1035">
+        <v>0</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1036" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B1036">
+        <v>0</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1037" s="1">
+        <v>41396</v>
+      </c>
+      <c r="B1037">
+        <v>0</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1038" s="1">
+        <v>41397</v>
+      </c>
+      <c r="B1038">
+        <v>0</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1039" s="1">
+        <v>41398</v>
+      </c>
+      <c r="B1039">
+        <v>0</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1040" s="1">
+        <v>41399</v>
+      </c>
+      <c r="B1040">
+        <v>0</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1041" s="1">
+        <v>41400</v>
+      </c>
+      <c r="B1041">
+        <v>0</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1042" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B1042">
+        <v>0</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1043" s="1">
+        <v>41402</v>
+      </c>
+      <c r="B1043">
+        <v>0</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1044" s="1">
+        <v>41403</v>
+      </c>
+      <c r="B1044">
+        <v>0</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1045" s="1">
+        <v>41404</v>
+      </c>
+      <c r="B1045">
+        <v>1</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1046" s="1">
+        <v>41405</v>
+      </c>
+      <c r="B1046">
+        <v>0</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1047" s="1">
+        <v>41406</v>
+      </c>
+      <c r="B1047">
+        <v>0</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1048" s="1">
+        <v>41407</v>
+      </c>
+      <c r="B1048">
+        <v>0</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1049" s="1">
+        <v>41408</v>
+      </c>
+      <c r="B1049">
+        <v>0</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1050" s="1">
+        <v>41409</v>
+      </c>
+      <c r="B1050">
+        <v>0</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1051" s="1">
+        <v>41410</v>
+      </c>
+      <c r="B1051">
+        <v>0</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1052" s="1">
+        <v>41411</v>
+      </c>
+      <c r="B1052">
+        <v>0</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1053" s="1">
+        <v>41412</v>
+      </c>
+      <c r="B1053">
+        <v>0</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1054" s="1">
+        <v>41413</v>
+      </c>
+      <c r="B1054">
+        <v>0</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1055" s="1">
+        <v>41414</v>
+      </c>
+      <c r="B1055">
+        <v>0</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1056" s="1">
+        <v>41415</v>
+      </c>
+      <c r="B1056">
+        <v>0</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1057" s="1">
+        <v>41416</v>
+      </c>
+      <c r="B1057">
+        <v>0</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1058" s="1">
+        <v>41417</v>
+      </c>
+      <c r="B1058">
+        <v>0</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1059" s="1">
+        <v>41418</v>
+      </c>
+      <c r="B1059">
+        <v>0</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1060" s="1">
+        <v>41419</v>
+      </c>
+      <c r="B1060">
+        <v>0</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1061" s="1">
+        <v>41420</v>
+      </c>
+      <c r="B1061">
+        <v>0</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1062" s="1">
+        <v>41421</v>
+      </c>
+      <c r="B1062">
+        <v>0</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1063" s="1">
+        <v>41422</v>
+      </c>
+      <c r="B1063">
+        <v>0</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1064" s="1">
+        <v>41423</v>
+      </c>
+      <c r="B1064">
+        <v>0</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1065" s="1">
+        <v>41424</v>
+      </c>
+      <c r="B1065">
+        <v>0</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1066" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B1066">
+        <v>0</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1067" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B1067">
+        <v>0</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1068" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B1068">
+        <v>0</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1069" s="1">
+        <v>41428</v>
+      </c>
+      <c r="B1069">
+        <v>0</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1070" s="1">
+        <v>41429</v>
+      </c>
+      <c r="B1070">
+        <v>0</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1071" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B1071">
+        <v>0</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1072" s="1">
+        <v>41431</v>
+      </c>
+      <c r="B1072">
+        <v>0</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1073" s="1">
+        <v>41432</v>
+      </c>
+      <c r="B1073">
+        <v>0</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1074" s="1">
+        <v>41433</v>
+      </c>
+      <c r="B1074">
+        <v>1</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1075" s="1">
+        <v>41434</v>
+      </c>
+      <c r="B1075">
+        <v>0</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1076" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B1076">
+        <v>0</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1077" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B1077">
+        <v>0</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1078" s="1">
+        <v>41437</v>
+      </c>
+      <c r="B1078">
+        <v>0</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1079" s="1">
+        <v>41438</v>
+      </c>
+      <c r="B1079">
+        <v>0</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1080" s="1">
+        <v>41439</v>
+      </c>
+      <c r="B1080">
+        <v>0</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1081" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B1081">
+        <v>0</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1082" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B1082">
+        <v>0</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1083" s="1">
+        <v>41442</v>
+      </c>
+      <c r="B1083">
+        <v>0</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1084" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B1084">
+        <v>0</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1085" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B1085">
+        <v>0</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1086" s="1">
+        <v>41445</v>
+      </c>
+      <c r="B1086">
+        <v>0</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1087" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B1087">
+        <v>0</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1088" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B1088">
+        <v>0</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1089" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B1089">
+        <v>0</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1090" s="1">
+        <v>41449</v>
+      </c>
+      <c r="B1090">
+        <v>0</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1091" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B1091">
+        <v>0</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1092" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B1092">
+        <v>0</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1093" s="1">
+        <v>41452</v>
+      </c>
+      <c r="B1093">
+        <v>0</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1094" s="1">
+        <v>41453</v>
+      </c>
+      <c r="B1094">
+        <v>0</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1095" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B1095">
+        <v>0</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1096" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B1096">
+        <v>0</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1097" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B1097">
+        <v>0</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1098" s="1">
+        <v>41457</v>
+      </c>
+      <c r="B1098">
+        <v>0</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1099" s="1">
+        <v>41458</v>
+      </c>
+      <c r="B1099">
+        <v>0</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1100" s="1">
+        <v>41459</v>
+      </c>
+      <c r="B1100">
+        <v>0</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1101" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B1101">
+        <v>0</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1102" s="1">
+        <v>41461</v>
+      </c>
+      <c r="B1102">
+        <v>0</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1103" s="1">
+        <v>41462</v>
+      </c>
+      <c r="B1103">
+        <v>0</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1104" s="1">
+        <v>41463</v>
+      </c>
+      <c r="B1104">
+        <v>0</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1105" s="1">
+        <v>41464</v>
+      </c>
+      <c r="B1105">
+        <v>0</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1106" s="1">
+        <v>41465</v>
+      </c>
+      <c r="B1106">
+        <v>0</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1107" s="1">
+        <v>41466</v>
+      </c>
+      <c r="B1107">
+        <v>0</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1108" s="1">
+        <v>41467</v>
+      </c>
+      <c r="B1108">
+        <v>0</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1109" s="1">
+        <v>41468</v>
+      </c>
+      <c r="B1109">
+        <v>0</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1110" s="1">
+        <v>41469</v>
+      </c>
+      <c r="B1110">
+        <v>0</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1111" s="1">
+        <v>41470</v>
+      </c>
+      <c r="B1111">
+        <v>0</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1112" s="1">
+        <v>41471</v>
+      </c>
+      <c r="B1112">
+        <v>0</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1113" s="1">
+        <v>41472</v>
+      </c>
+      <c r="B1113">
+        <v>0</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1114" s="1">
+        <v>41473</v>
+      </c>
+      <c r="B1114">
+        <v>0</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1115" s="1">
+        <v>41474</v>
+      </c>
+      <c r="B1115">
+        <v>0</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1116" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1116">
+        <v>0</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1117" s="1">
+        <v>41476</v>
+      </c>
+      <c r="B1117">
+        <v>0</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1118" s="1">
+        <v>41477</v>
+      </c>
+      <c r="B1118">
+        <v>0</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1119" s="1">
+        <v>41478</v>
+      </c>
+      <c r="B1119">
+        <v>0</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1120" s="1">
+        <v>41479</v>
+      </c>
+      <c r="B1120">
+        <v>0</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1121" s="1">
+        <v>41480</v>
+      </c>
+      <c r="B1121">
+        <v>0</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1122" s="1">
+        <v>41481</v>
+      </c>
+      <c r="B1122">
+        <v>0</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1123" s="1">
+        <v>41482</v>
+      </c>
+      <c r="B1123">
+        <v>0</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1124" s="1">
+        <v>41483</v>
+      </c>
+      <c r="B1124">
+        <v>1</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1125" s="1">
+        <v>41484</v>
+      </c>
+      <c r="B1125">
+        <v>0</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1126" s="1">
+        <v>41485</v>
+      </c>
+      <c r="B1126">
+        <v>0</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1127" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1127">
+        <v>1</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1128" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B1128">
+        <v>0</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1129" s="1">
+        <v>41488</v>
+      </c>
+      <c r="B1129">
+        <v>0</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1130" s="1">
+        <v>41489</v>
+      </c>
+      <c r="B1130">
+        <v>0</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1131" s="1">
+        <v>41490</v>
+      </c>
+      <c r="B1131">
+        <v>0</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1132" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B1132">
+        <v>0</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1133" s="1">
+        <v>41492</v>
+      </c>
+      <c r="B1133">
+        <v>0</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1134" s="1">
+        <v>41493</v>
+      </c>
+      <c r="B1134">
+        <v>0</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1135" s="1">
+        <v>41494</v>
+      </c>
+      <c r="B1135">
+        <v>0</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1136" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1136">
+        <v>0</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1137" s="1">
+        <v>41496</v>
+      </c>
+      <c r="B1137">
+        <v>0</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1138" s="1">
+        <v>41497</v>
+      </c>
+      <c r="B1138">
+        <v>0</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1139" s="1">
+        <v>41498</v>
+      </c>
+      <c r="B1139">
+        <v>0</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1140" s="1">
+        <v>41499</v>
+      </c>
+      <c r="B1140">
+        <v>0</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1141" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1141">
+        <v>0</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1142" s="1">
+        <v>41501</v>
+      </c>
+      <c r="B1142">
+        <v>0</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1143" s="1">
+        <v>41502</v>
+      </c>
+      <c r="B1143">
+        <v>0</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1144" s="1">
+        <v>41503</v>
+      </c>
+      <c r="B1144">
+        <v>0</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1145" s="1">
+        <v>41504</v>
+      </c>
+      <c r="B1145">
+        <v>1</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1146" s="1">
+        <v>41505</v>
+      </c>
+      <c r="B1146">
+        <v>0</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1147" s="1">
+        <v>41506</v>
+      </c>
+      <c r="B1147">
+        <v>0</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1148" s="1">
+        <v>41507</v>
+      </c>
+      <c r="B1148">
+        <v>0</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1149" s="1">
+        <v>41508</v>
+      </c>
+      <c r="B1149">
+        <v>1</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1150" s="1">
+        <v>41509</v>
+      </c>
+      <c r="B1150">
+        <v>0</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1151" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B1151">
+        <v>0</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1152" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B1152">
+        <v>0</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1153" s="1">
+        <v>41512</v>
+      </c>
+      <c r="B1153">
+        <v>0</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1154" s="1">
+        <v>41513</v>
+      </c>
+      <c r="B1154">
+        <v>0</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1155" s="1">
+        <v>41514</v>
+      </c>
+      <c r="B1155">
+        <v>0</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1156" s="1">
+        <v>41515</v>
+      </c>
+      <c r="B1156">
+        <v>0</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1157" s="1">
+        <v>41516</v>
+      </c>
+      <c r="B1157">
+        <v>0</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1158" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B1158">
+        <v>0</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1159" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B1159">
+        <v>0</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1160" s="1">
+        <v>41519</v>
+      </c>
+      <c r="B1160">
+        <v>0</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1161" s="1">
+        <v>41520</v>
+      </c>
+      <c r="B1161">
+        <v>0</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1162" s="1">
+        <v>41521</v>
+      </c>
+      <c r="B1162">
+        <v>0</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1163" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B1163">
+        <v>0</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1164" s="1">
+        <v>41523</v>
+      </c>
+      <c r="B1164">
+        <v>0</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1165" s="1">
+        <v>41524</v>
+      </c>
+      <c r="B1165">
+        <v>0</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1166" s="1">
+        <v>41525</v>
+      </c>
+      <c r="B1166">
+        <v>0</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1167" s="1">
+        <v>41526</v>
+      </c>
+      <c r="B1167">
+        <v>0</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1168" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B1168">
+        <v>0</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1169" s="1">
+        <v>41528</v>
+      </c>
+      <c r="B1169">
+        <v>0</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1170" s="1">
+        <v>41529</v>
+      </c>
+      <c r="B1170">
+        <v>0</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1171" s="1">
+        <v>41530</v>
+      </c>
+      <c r="B1171">
+        <v>0</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1172" s="1">
+        <v>41531</v>
+      </c>
+      <c r="B1172">
+        <v>0</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1173" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B1173">
+        <v>0</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1174" s="1">
+        <v>41533</v>
+      </c>
+      <c r="B1174">
+        <v>0</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1175" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1176" s="1">
+        <v>41535</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1177" s="1">
+        <v>41536</v>
+      </c>
+      <c r="B1177">
+        <v>0</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1178" s="1">
+        <v>41537</v>
+      </c>
+      <c r="B1178">
+        <v>0</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1179" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1179">
+        <v>0</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1180" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B1180">
+        <v>0</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1181" s="1">
+        <v>41540</v>
+      </c>
+      <c r="B1181">
+        <v>1</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1182" s="1">
+        <v>41541</v>
+      </c>
+      <c r="B1182">
+        <v>1</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1183" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1183">
+        <v>0</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1184" s="1">
+        <v>41543</v>
+      </c>
+      <c r="B1184">
+        <v>0</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1185" s="1">
+        <v>41544</v>
+      </c>
+      <c r="B1185">
+        <v>0</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1186" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B1186">
+        <v>1</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1187" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B1187">
+        <v>0</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1188" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B1188">
+        <v>0</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1189" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B1189">
+        <v>0</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1190" s="1">
+        <v>41549</v>
+      </c>
+      <c r="B1190">
+        <v>0</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1191" s="1">
+        <v>41550</v>
+      </c>
+      <c r="B1191">
+        <v>0</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1192" s="1">
+        <v>41551</v>
+      </c>
+      <c r="B1192">
+        <v>0</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1193" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B1193">
+        <v>0</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1194" s="1">
+        <v>41553</v>
+      </c>
+      <c r="B1194">
+        <v>0</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1195" s="1">
+        <v>41554</v>
+      </c>
+      <c r="B1195">
+        <v>1</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1196" s="1">
+        <v>41555</v>
+      </c>
+      <c r="B1196">
+        <v>1</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1197" s="1">
+        <v>41556</v>
+      </c>
+      <c r="B1197">
+        <v>0</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1198" s="1">
+        <v>41557</v>
+      </c>
+      <c r="B1198">
+        <v>0</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1199" s="1">
+        <v>41558</v>
+      </c>
+      <c r="B1199">
+        <v>0</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1200" s="1">
+        <v>41559</v>
+      </c>
+      <c r="B1200">
+        <v>0</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1201" s="1">
+        <v>41560</v>
+      </c>
+      <c r="B1201">
+        <v>0</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1202" s="1">
+        <v>41561</v>
+      </c>
+      <c r="B1202">
+        <v>0</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1203" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B1203">
+        <v>0</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1204" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1204">
+        <v>0</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1205" s="1">
+        <v>41564</v>
+      </c>
+      <c r="B1205">
+        <v>0</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1206" s="1">
+        <v>41565</v>
+      </c>
+      <c r="B1206">
+        <v>0</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1207" s="1">
+        <v>41566</v>
+      </c>
+      <c r="B1207">
+        <v>0</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1208" s="1">
+        <v>41567</v>
+      </c>
+      <c r="B1208">
+        <v>0</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1209" s="1">
+        <v>41568</v>
+      </c>
+      <c r="B1209">
+        <v>0</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1210" s="1">
+        <v>41569</v>
+      </c>
+      <c r="B1210">
+        <v>0</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1211" s="1">
+        <v>41570</v>
+      </c>
+      <c r="B1211">
+        <v>0</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1212" s="1">
+        <v>41571</v>
+      </c>
+      <c r="B1212">
+        <v>0</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1213" s="1">
+        <v>41572</v>
+      </c>
+      <c r="B1213">
+        <v>1</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1214" s="1">
+        <v>41573</v>
+      </c>
+      <c r="B1214">
+        <v>0</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1215" s="1">
+        <v>41574</v>
+      </c>
+      <c r="B1215">
+        <v>0</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1216" s="1">
+        <v>41575</v>
+      </c>
+      <c r="B1216">
+        <v>0</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1217" s="1">
+        <v>41576</v>
+      </c>
+      <c r="B1217">
+        <v>0</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1218" s="1">
+        <v>41577</v>
+      </c>
+      <c r="B1218">
+        <v>0</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1219" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B1219">
+        <v>1</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1220" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B1220">
+        <v>0</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1221" s="1">
+        <v>41580</v>
+      </c>
+      <c r="B1221">
+        <v>0</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1222" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B1222">
+        <v>0</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1223" s="1">
+        <v>41582</v>
+      </c>
+      <c r="B1223">
+        <v>0</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1224" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1224">
+        <v>1</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1225" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1225">
+        <v>0</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1226" s="1">
+        <v>41585</v>
+      </c>
+      <c r="B1226">
+        <v>0</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1227" s="1">
+        <v>41586</v>
+      </c>
+      <c r="B1227">
+        <v>0</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1228" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1228">
+        <v>0</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1229" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B1229">
+        <v>0</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1230" s="1">
+        <v>41589</v>
+      </c>
+      <c r="B1230">
+        <v>0</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1231" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B1231">
+        <v>0</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1232" s="1">
+        <v>41591</v>
+      </c>
+      <c r="B1232">
+        <v>0</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1233" s="1">
+        <v>41592</v>
+      </c>
+      <c r="B1233">
+        <v>0</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1234" s="1">
+        <v>41593</v>
+      </c>
+      <c r="B1234">
+        <v>0</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1235" s="1">
+        <v>41594</v>
+      </c>
+      <c r="B1235">
+        <v>0</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1236" s="1">
+        <v>41595</v>
+      </c>
+      <c r="B1236">
+        <v>0</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1237" s="1">
+        <v>41596</v>
+      </c>
+      <c r="B1237">
+        <v>0</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1238" s="1">
+        <v>41597</v>
+      </c>
+      <c r="B1238">
+        <v>0</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1239" s="1">
+        <v>41598</v>
+      </c>
+      <c r="B1239">
+        <v>0</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1240" s="1">
+        <v>41599</v>
+      </c>
+      <c r="B1240">
+        <v>0</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1241" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1241">
+        <v>0</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1242" s="1">
+        <v>41601</v>
+      </c>
+      <c r="B1242">
+        <v>0</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1243" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B1243">
+        <v>0</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1244" s="1">
+        <v>41603</v>
+      </c>
+      <c r="B1244">
+        <v>0</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1245" s="1">
+        <v>41604</v>
+      </c>
+      <c r="B1245">
+        <v>1</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1246" s="1">
+        <v>41605</v>
+      </c>
+      <c r="B1246">
+        <v>1</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1247" s="1">
+        <v>41606</v>
+      </c>
+      <c r="B1247">
+        <v>0</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1248" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B1248">
+        <v>0</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1249" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B1249">
+        <v>0</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1250" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B1250">
+        <v>0</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1251" s="1">
+        <v>41610</v>
+      </c>
+      <c r="B1251">
+        <v>0</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1252" s="1">
+        <v>41611</v>
+      </c>
+      <c r="B1252">
+        <v>0</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1253" s="1">
+        <v>41612</v>
+      </c>
+      <c r="B1253">
+        <v>0</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1254" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B1254">
+        <v>0</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1255" s="1">
+        <v>41614</v>
+      </c>
+      <c r="B1255">
+        <v>0</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1256" s="1">
+        <v>41615</v>
+      </c>
+      <c r="B1256">
+        <v>0</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1257" s="1">
+        <v>41616</v>
+      </c>
+      <c r="B1257">
+        <v>0</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1258" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B1258">
+        <v>0</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1259" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B1259">
+        <v>0</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1260" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B1260">
+        <v>0</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1261" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B1261">
+        <v>0</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1262" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B1262">
+        <v>0</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1263" s="1">
+        <v>41622</v>
+      </c>
+      <c r="B1263">
+        <v>0</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1264" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B1264">
+        <v>0</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1265" s="1">
+        <v>41624</v>
+      </c>
+      <c r="B1265">
+        <v>0</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1266" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1267" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1268" s="1">
+        <v>41627</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1269" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1270" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1271" s="1">
+        <v>41630</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1272" s="1">
+        <v>41631</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1273" s="1">
+        <v>41632</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1274" s="1">
+        <v>41633</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1275" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1276" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1277" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1278" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1279" s="1">
+        <v>41638</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1280" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1281" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1282" s="1">
+        <v>41641</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1283" s="1">
+        <v>41642</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1284" s="1">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1285" s="1">
+        <v>41644</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1286" s="1">
+        <v>41645</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1287" s="1">
+        <v>41646</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1288" s="1">
+        <v>41647</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1289" s="1">
+        <v>41648</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1290" s="1">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1291" s="1">
+        <v>41650</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1292" s="1">
+        <v>41651</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1293" s="1">
+        <v>41652</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1294" s="1">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1295" s="1">
+        <v>41654</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1296" s="1">
+        <v>41655</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1297" s="1">
+        <v>41656</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1298" s="1">
+        <v>41657</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1299" s="1">
+        <v>41658</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1300" s="1">
+        <v>41659</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1301" s="1">
+        <v>41660</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1302" s="1">
+        <v>41661</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1303" s="1">
+        <v>41662</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1304" s="1">
+        <v>41663</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1305" s="1">
+        <v>41664</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1306" s="1">
+        <v>41665</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1307" s="1">
+        <v>41666</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1308" s="1">
+        <v>41667</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1309" s="1">
+        <v>41668</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1310" s="1">
+        <v>41669</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1311" s="1">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1312" s="1">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1313" s="1">
+        <v>41672</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1314" s="1">
+        <v>41673</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1315" s="1">
+        <v>41674</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1316" s="1">
+        <v>41675</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1317" s="1">
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1318" s="1">
+        <v>41677</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1319" s="1">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1320" s="1">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1321" s="1">
+        <v>41680</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1322" s="1">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1323" s="1">
+        <v>41682</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1324" s="1">
+        <v>41683</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1325" s="1">
+        <v>41684</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1326" s="1">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1327" s="1">
+        <v>41686</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1328" s="1">
+        <v>41687</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1329" s="1">
+        <v>41688</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1330" s="1">
+        <v>41689</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1331" s="1">
+        <v>41690</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1332" s="1">
+        <v>41691</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1333" s="1">
+        <v>41692</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1334" s="1">
+        <v>41693</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1335" s="1">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1336" s="1">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1337" s="1">
+        <v>41696</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1338" s="1">
+        <v>41697</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1339" s="1">
+        <v>41698</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1340" s="1">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1341" s="1">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1342" s="1">
+        <v>41701</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1343" s="1">
+        <v>41702</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1344" s="1">
+        <v>41703</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1345" s="1">
+        <v>41704</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1346" s="1">
+        <v>41705</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1347" s="1">
+        <v>41706</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1348" s="1">
+        <v>41707</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1349" s="1">
+        <v>41708</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1350" s="1">
+        <v>41709</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1351" s="1">
+        <v>41710</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1352" s="1">
+        <v>41711</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1353" s="1">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1354" s="1">
+        <v>41713</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1355" s="1">
+        <v>41714</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1356" s="1">
+        <v>41715</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1357" s="1">
+        <v>41716</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1358" s="1">
+        <v>41717</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1359" s="1">
+        <v>41718</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1360" s="1">
+        <v>41719</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1361" s="1">
+        <v>41720</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1362" s="1">
+        <v>41721</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1363" s="1">
+        <v>41722</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1364" s="1">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1365" s="1">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1366" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1367" s="1">
+        <v>41726</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1368" s="1">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1369" s="1">
+        <v>41728</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1370" s="1">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1371" s="1">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1372" s="1">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1373" s="1">
+        <v>41732</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1374" s="1">
+        <v>41733</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1375" s="1">
+        <v>41734</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1376" s="1">
+        <v>41735</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1377" s="1">
+        <v>41736</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1378" s="1">
+        <v>41737</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1379" s="1">
+        <v>41738</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1380" s="1">
+        <v>41739</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1381" s="1">
+        <v>41740</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1382" s="1">
+        <v>41741</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1383" s="1">
+        <v>41742</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1384" s="1">
+        <v>41743</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1385" s="1">
+        <v>41744</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1386" s="1">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1387" s="1">
+        <v>41746</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1388" s="1">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1389" s="1">
+        <v>41748</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1390" s="1">
+        <v>41749</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1391" s="1">
+        <v>41750</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1392" s="1">
+        <v>41751</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1393" s="1">
+        <v>41752</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1394" s="1">
+        <v>41753</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1395" s="1">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1396" s="1">
+        <v>41755</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1397" s="1">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1398" s="1">
+        <v>41757</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1399" s="1">
+        <v>41758</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1400" s="1">
+        <v>41759</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1401" s="1">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1402" s="1">
+        <v>41761</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1403" s="1">
+        <v>41762</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1404" s="1">
+        <v>41763</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1405" s="1">
+        <v>41764</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1406" s="1">
+        <v>41765</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1407" s="1">
+        <v>41766</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1408" s="1">
+        <v>41767</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1409" s="1">
+        <v>41768</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1410" s="1">
+        <v>41769</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1411" s="1">
+        <v>41770</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1412" s="1">
+        <v>41771</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1413" s="1">
+        <v>41772</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1414" s="1">
+        <v>41773</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1415" s="1">
+        <v>41774</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1416" s="1">
+        <v>41775</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1417" s="1">
+        <v>41776</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1418" s="1">
+        <v>41777</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1419" s="1">
+        <v>41778</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1420" s="1">
+        <v>41779</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1421" s="1">
+        <v>41780</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1422" s="1">
+        <v>41781</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1423" s="1">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1424" s="1">
+        <v>41783</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1425" s="1">
+        <v>41784</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1426" s="1">
+        <v>41785</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1427" s="1">
+        <v>41786</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1428" s="1">
+        <v>41787</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1429" s="1">
+        <v>41788</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1430" s="1">
+        <v>41789</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1431" s="1">
+        <v>41790</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1432" s="1">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1433" s="1">
+        <v>41792</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1434" s="1">
+        <v>41793</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1435" s="1">
+        <v>41794</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1436" s="1">
+        <v>41795</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1437" s="1">
+        <v>41796</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1438" s="1">
+        <v>41797</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1439" s="1">
+        <v>41798</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1440" s="1">
+        <v>41799</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1441" s="1">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1442" s="1">
+        <v>41801</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1443" s="1">
+        <v>41802</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1444" s="1">
+        <v>41803</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1445" s="1">
+        <v>41804</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1446" s="1">
+        <v>41805</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1447" s="1">
+        <v>41806</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1448" s="1">
+        <v>41807</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1449" s="1">
+        <v>41808</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1450" s="1">
+        <v>41809</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1451" s="1">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1452" s="1">
+        <v>41811</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1453" s="1">
+        <v>41812</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1454" s="1">
+        <v>41813</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1455" s="1">
+        <v>41814</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1456" s="1">
+        <v>41815</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1457" s="1">
+        <v>41816</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1458" s="1">
+        <v>41817</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1459" s="1">
+        <v>41818</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1460" s="1">
+        <v>41819</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1461" s="1">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1462" s="1">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1463" s="1">
+        <v>41822</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1464" s="1">
+        <v>41823</v>
       </c>
     </row>
   </sheetData>
@@ -13986,11 +19751,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A167" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -15989,11 +21754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A174" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -21649,11 +27414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
+    <sheetView topLeftCell="A378" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">

--- a/sea_of_clouds_records.xlsx
+++ b/sea_of_clouds_records.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="211">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -1541,6 +1541,31 @@
     <t>v</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>北山カメラは雲の中だが、北東側では晴れていたらしい。TwitterとInstagramで報告あり</t>
+    <rPh sb="0" eb="2">
+      <t>キタヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -4116,7 +4141,7 @@
   <dimension ref="A1:F1464"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1268" zoomScale="107" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C1289" sqref="C1289"/>
+      <selection activeCell="D1298" sqref="D1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -19319,88 +19344,97 @@
       <c r="A1295" s="1">
         <v>41654</v>
       </c>
+      <c r="B1295">
+        <v>1</v>
+      </c>
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1296" s="1">
         <v>41655</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1297" s="1">
         <v>41656</v>
       </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1297">
+        <v>1</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1298" s="1">
         <v>41657</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1299" s="1">
         <v>41658</v>
       </c>
     </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1300" s="1">
         <v>41659</v>
       </c>
     </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1301" s="1">
         <v>41660</v>
       </c>
     </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1302" s="1">
         <v>41661</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1303" s="1">
         <v>41662</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1304" s="1">
         <v>41663</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1305" s="1">
         <v>41664</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1306" s="1">
         <v>41665</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1307" s="1">
         <v>41666</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1308" s="1">
         <v>41667</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1309" s="1">
         <v>41668</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1310" s="1">
         <v>41669</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1311" s="1">
         <v>41670</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1312" s="1">
         <v>41671</v>
       </c>
